--- a/data/model_data/all_estimators_results.xlsx
+++ b/data/model_data/all_estimators_results.xlsx
@@ -888,13 +888,13 @@
         <v>0.5870702272530597</v>
       </c>
       <c r="C20">
-        <v>0.4558647919997081</v>
+        <v>0.4564188897658955</v>
       </c>
       <c r="D20">
-        <v>-0.4868661059953023</v>
+        <v>-0.4943562915589921</v>
       </c>
       <c r="E20">
-        <v>1.661006560501422</v>
+        <v>1.668496746065111</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -915,13 +915,13 @@
         <v>0.07098023546184942</v>
       </c>
       <c r="C21">
-        <v>0.3403545355281963</v>
+        <v>0.3387830344748017</v>
       </c>
       <c r="D21">
-        <v>-0.7308344874655456</v>
+        <v>-0.73172308339637</v>
       </c>
       <c r="E21">
-        <v>0.8727949583892444</v>
+        <v>0.8736835543200688</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -942,13 +942,13 @@
         <v>-0.09207466635658938</v>
       </c>
       <c r="C22">
-        <v>0.2900153127263762</v>
+        <v>0.3008354979059409</v>
       </c>
       <c r="D22">
-        <v>-0.7752991377376582</v>
+        <v>-0.8048661229117282</v>
       </c>
       <c r="E22">
-        <v>0.5911498050244796</v>
+        <v>0.6207167901985495</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -969,13 +969,13 @@
         <v>0.285399278151076</v>
       </c>
       <c r="C23">
-        <v>0.3570981982065247</v>
+        <v>0.3395836908730216</v>
       </c>
       <c r="D23">
-        <v>-0.5558605346746477</v>
+        <v>-0.5192010942272897</v>
       </c>
       <c r="E23">
-        <v>1.1266590909768</v>
+        <v>1.089999650529442</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -996,13 +996,13 @@
         <v>0.2234169431307561</v>
       </c>
       <c r="C24">
-        <v>0.1838085213780991</v>
+        <v>0.1883527706350583</v>
       </c>
       <c r="D24">
-        <v>-0.2096032262986156</v>
+        <v>-0.2228609950171405</v>
       </c>
       <c r="E24">
-        <v>0.6564371125601278</v>
+        <v>0.6696948812786527</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1041,13 +1041,13 @@
         <v>-1.267120215603461</v>
       </c>
       <c r="C26">
-        <v>0.1899938444985835</v>
+        <v>0.2096782888003118</v>
       </c>
       <c r="D26">
-        <v>-1.714711905686644</v>
+        <v>-1.763926257185337</v>
       </c>
       <c r="E26">
-        <v>-0.8195285255202771</v>
+        <v>-0.7703141740215844</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1068,13 +1068,13 @@
         <v>-2.016076308754292</v>
       </c>
       <c r="C27">
-        <v>0.3117179792940187</v>
+        <v>0.3466722890782858</v>
       </c>
       <c r="D27">
-        <v>-2.750428400790436</v>
+        <v>-2.837472213158749</v>
       </c>
       <c r="E27">
-        <v>-1.281724216718148</v>
+        <v>-1.194680404349835</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1095,13 +1095,13 @@
         <v>-1.92912244068592</v>
       </c>
       <c r="C28">
-        <v>0.3686426837601053</v>
+        <v>0.3792506748328848</v>
       </c>
       <c r="D28">
-        <v>-2.797579007247035</v>
+        <v>-2.827708687306894</v>
       </c>
       <c r="E28">
-        <v>-1.060665874124806</v>
+        <v>-1.030536194064946</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1122,13 +1122,13 @@
         <v>-2.069460151140822</v>
       </c>
       <c r="C29">
-        <v>0.5669906481724799</v>
+        <v>0.5746163791856759</v>
       </c>
       <c r="D29">
-        <v>-3.405189227767681</v>
+        <v>-3.43094059055445</v>
       </c>
       <c r="E29">
-        <v>-0.7337310745139636</v>
+        <v>-0.7079797117271949</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1896,13 +1896,13 @@
         <v>1.137680659844869</v>
       </c>
       <c r="C58">
-        <v>1.634223327839582</v>
+        <v>1.614270784948157</v>
       </c>
       <c r="D58">
-        <v>-2.735605137060851</v>
+        <v>-2.63015957913734</v>
       </c>
       <c r="E58">
-        <v>5.010966456750589</v>
+        <v>4.905520898827079</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1923,13 +1923,13 @@
         <v>0.3291074484860063</v>
       </c>
       <c r="C59">
-        <v>0.9989656332748102</v>
+        <v>1.0297151701208</v>
       </c>
       <c r="D59">
-        <v>-2.038548999103307</v>
+        <v>-2.074332103816965</v>
       </c>
       <c r="E59">
-        <v>2.69676389607532</v>
+        <v>2.732547000788977</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1950,13 +1950,13 @@
         <v>-0.4999010040638062</v>
       </c>
       <c r="C60">
-        <v>0.9504084416135508</v>
+        <v>0.9070117498557281</v>
       </c>
       <c r="D60">
-        <v>-2.752471662829007</v>
+        <v>-2.616940722679437</v>
       </c>
       <c r="E60">
-        <v>1.752669654701394</v>
+        <v>1.617138714551825</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -1977,13 +1977,13 @@
         <v>0.5450368040789084</v>
       </c>
       <c r="C61">
-        <v>1.317736996499978</v>
+        <v>1.277104601854372</v>
       </c>
       <c r="D61">
-        <v>-2.578142204354375</v>
+        <v>-2.435829945864035</v>
       </c>
       <c r="E61">
-        <v>3.668215812512192</v>
+        <v>3.525903554021852</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2004,13 +2004,13 @@
         <v>0.1784091579125804</v>
       </c>
       <c r="C62">
-        <v>0.7059226051968474</v>
+        <v>0.6778607094791343</v>
       </c>
       <c r="D62">
-        <v>-1.494703662009196</v>
+        <v>-1.403773262419419</v>
       </c>
       <c r="E62">
-        <v>1.851521977834357</v>
+        <v>1.76059157824458</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2049,13 +2049,13 @@
         <v>-0.1978080842214399</v>
       </c>
       <c r="C64">
-        <v>0.5906386443187955</v>
+        <v>0.634782068441832</v>
       </c>
       <c r="D64">
-        <v>-1.597685465220498</v>
+        <v>-1.679441427747697</v>
       </c>
       <c r="E64">
-        <v>1.202069296777619</v>
+        <v>1.283825259304818</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2076,13 +2076,13 @@
         <v>-0.04126116690060403</v>
       </c>
       <c r="C65">
-        <v>1.137003349637704</v>
+        <v>1.136319311373414</v>
       </c>
       <c r="D65">
-        <v>-2.736081911509535</v>
+        <v>-2.693523516964014</v>
       </c>
       <c r="E65">
-        <v>2.653559577708327</v>
+        <v>2.611001183162806</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2103,13 +2103,13 @@
         <v>1.343072547526181</v>
       </c>
       <c r="C66">
-        <v>1.40116111929956</v>
+        <v>1.40343148511451</v>
       </c>
       <c r="D66">
-        <v>-1.977830642452173</v>
+        <v>-1.932651495536914</v>
       </c>
       <c r="E66">
-        <v>4.663975737504535</v>
+        <v>4.618796590589275</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2130,13 +2130,13 @@
         <v>3.229200914179287</v>
       </c>
       <c r="C67">
-        <v>2.520048336025754</v>
+        <v>2.533318530882287</v>
       </c>
       <c r="D67">
-        <v>-2.743585828712311</v>
+        <v>-2.683772044148844</v>
       </c>
       <c r="E67">
-        <v>9.201987657070884</v>
+        <v>9.142173872507417</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2904,13 +2904,13 @@
         <v>-0.2396140393470111</v>
       </c>
       <c r="C96">
-        <v>0.4038087975833949</v>
+        <v>0.4193215335856097</v>
       </c>
       <c r="D96">
-        <v>-1.280399427550676</v>
+        <v>-1.279980684657184</v>
       </c>
       <c r="E96">
-        <v>0.8011713488566538</v>
+        <v>0.8007526059631617</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -2931,13 +2931,13 @@
         <v>-0.1374756589886744</v>
       </c>
       <c r="C97">
-        <v>0.3464267254183122</v>
+        <v>0.3559427733407662</v>
       </c>
       <c r="D97">
-        <v>-1.030363273266469</v>
+        <v>-1.02059507777075</v>
       </c>
       <c r="E97">
-        <v>0.7554119552891205</v>
+        <v>0.7456437597934009</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -2958,13 +2958,13 @@
         <v>-0.2341110531532761</v>
       </c>
       <c r="C98">
-        <v>0.3065921464929759</v>
+        <v>0.3369925540207236</v>
       </c>
       <c r="D98">
-        <v>-1.024328176003322</v>
+        <v>-1.070213625618634</v>
       </c>
       <c r="E98">
-        <v>0.5561060696967698</v>
+        <v>0.6019915193120821</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -2985,13 +2985,13 @@
         <v>-0.01177717135546133</v>
       </c>
       <c r="C99">
-        <v>0.2582597155841518</v>
+        <v>0.2329201676140316</v>
       </c>
       <c r="D99">
-        <v>-0.6774212582357335</v>
+        <v>-0.5896687271112548</v>
       </c>
       <c r="E99">
-        <v>0.6538669155248109</v>
+        <v>0.5661143844003322</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -3012,13 +3012,13 @@
         <v>0.02733224603251</v>
       </c>
       <c r="C100">
-        <v>0.1885219036435091</v>
+        <v>0.1958508332758548</v>
       </c>
       <c r="D100">
-        <v>-0.4585681202862349</v>
+        <v>-0.4585876461659276</v>
       </c>
       <c r="E100">
-        <v>0.5132326123512549</v>
+        <v>0.5132521382309476</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -3057,13 +3057,13 @@
         <v>-0.4270658898722482</v>
       </c>
       <c r="C102">
-        <v>0.1739997702605415</v>
+        <v>0.1736762536631807</v>
       </c>
       <c r="D102">
-        <v>-0.8755366005693475</v>
+        <v>-0.8579690677952881</v>
       </c>
       <c r="E102">
-        <v>0.02140482082485096</v>
+        <v>0.003837288050791643</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -3084,13 +3084,13 @@
         <v>-0.9306712073074095</v>
       </c>
       <c r="C103">
-        <v>0.3313710472458033</v>
+        <v>0.3570623480578063</v>
       </c>
       <c r="D103">
-        <v>-1.784753996268817</v>
+        <v>-1.816568370849171</v>
       </c>
       <c r="E103">
-        <v>-0.07658841834600194</v>
+        <v>-0.04477404376564786</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -3111,13 +3111,13 @@
         <v>-0.7637652278853471</v>
       </c>
       <c r="C104">
-        <v>0.4341746500464874</v>
+        <v>0.4737393609137441</v>
       </c>
       <c r="D104">
-        <v>-1.882816210432355</v>
+        <v>-1.939146385754248</v>
       </c>
       <c r="E104">
-        <v>0.3552857546616606</v>
+        <v>0.4116159299835536</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -3138,13 +3138,13 @@
         <v>-0.1119901245415251</v>
       </c>
       <c r="C105">
-        <v>0.650929444862016</v>
+        <v>0.6374316058831672</v>
       </c>
       <c r="D105">
-        <v>-1.789709527928214</v>
+        <v>-1.693503422360164</v>
       </c>
       <c r="E105">
-        <v>1.565729278845164</v>
+        <v>1.469523173277114</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3912,13 +3912,13 @@
         <v>32669.25177970178</v>
       </c>
       <c r="C134">
-        <v>33904.92710221163</v>
+        <v>33495.68248179312</v>
       </c>
       <c r="D134">
-        <v>-42530.23023338392</v>
+        <v>-41469.43711627283</v>
       </c>
       <c r="E134">
-        <v>107868.7337927875</v>
+        <v>106807.9406756764</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -3939,13 +3939,13 @@
         <v>36780.50463980465</v>
       </c>
       <c r="C135">
-        <v>34680.59018230143</v>
+        <v>34867.15015638061</v>
       </c>
       <c r="D135">
-        <v>-40139.36042154965</v>
+        <v>-40393.76400028762</v>
       </c>
       <c r="E135">
-        <v>113700.369701159</v>
+        <v>113954.7732798969</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -3966,13 +3966,13 @@
         <v>35554.78942850992</v>
       </c>
       <c r="C136">
-        <v>28873.77710215451</v>
+        <v>30725.99127173322</v>
       </c>
       <c r="D136">
-        <v>-28485.84617874611</v>
+        <v>-32453.51907971884</v>
       </c>
       <c r="E136">
-        <v>99595.42503576595</v>
+        <v>103563.0979367387</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -3993,13 +3993,13 @@
         <v>29563.82425873993</v>
       </c>
       <c r="C137">
-        <v>24216.28762313549</v>
+        <v>23009.37478112306</v>
       </c>
       <c r="D137">
-        <v>-24146.72583475665</v>
+        <v>-21364.67613876102</v>
       </c>
       <c r="E137">
-        <v>83274.37435223651</v>
+        <v>80492.32465624087</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -4020,13 +4020,13 @@
         <v>14582.49151959152</v>
       </c>
       <c r="C138">
-        <v>16056.10884408023</v>
+        <v>15436.38204902415</v>
       </c>
       <c r="D138">
-        <v>-21029.17827048442</v>
+        <v>-19584.0947869892</v>
       </c>
       <c r="E138">
-        <v>50194.16130966747</v>
+        <v>48749.07782617225</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -4065,13 +4065,13 @@
         <v>8943.650001850001</v>
       </c>
       <c r="C140">
-        <v>10081.8942943743</v>
+        <v>9688.83589934856</v>
       </c>
       <c r="D140">
-        <v>-13417.5020030507</v>
+        <v>-12501.42999902478</v>
       </c>
       <c r="E140">
-        <v>31304.8020067507</v>
+        <v>30388.73000272478</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -4092,13 +4092,13 @@
         <v>24094.33291153292</v>
       </c>
       <c r="C141">
-        <v>24866.92794590674</v>
+        <v>24081.91180866114</v>
       </c>
       <c r="D141">
-        <v>-31059.30582514888</v>
+        <v>-29208.0999788283</v>
       </c>
       <c r="E141">
-        <v>79247.97164821471</v>
+        <v>77396.76580189413</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -4119,13 +4119,13 @@
         <v>29624.2478701592</v>
       </c>
       <c r="C142">
-        <v>28090.30520521342</v>
+        <v>25653.93410089469</v>
       </c>
       <c r="D142">
-        <v>-32678.68511221974</v>
+        <v>-27157.66843496125</v>
       </c>
       <c r="E142">
-        <v>91927.18085253813</v>
+        <v>86406.16417527964</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -4146,13 +4146,13 @@
         <v>23291.91736191332</v>
       </c>
       <c r="C143">
-        <v>22652.4490697208</v>
+        <v>24701.60376608481</v>
       </c>
       <c r="D143">
-        <v>-26950.1147544068</v>
+        <v>-31382.12959446204</v>
       </c>
       <c r="E143">
-        <v>73533.94947823344</v>
+        <v>77965.96431828869</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -4920,13 +4920,13 @@
         <v>-0.007903234433810387</v>
       </c>
       <c r="C172">
-        <v>0.1722907157860886</v>
+        <v>0.1667792125170257</v>
       </c>
       <c r="D172">
-        <v>-0.4412522994947443</v>
+        <v>-0.4281969858031334</v>
       </c>
       <c r="E172">
-        <v>0.4254458306271235</v>
+        <v>0.4123905169355126</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -4947,13 +4947,13 @@
         <v>-0.208397918786025</v>
       </c>
       <c r="C173">
-        <v>0.1834282220626145</v>
+        <v>0.1819559732049962</v>
       </c>
       <c r="D173">
-        <v>-0.6697602630885122</v>
+        <v>-0.6669380294402646</v>
       </c>
       <c r="E173">
-        <v>0.2529644255164621</v>
+        <v>0.2501421918682145</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -4974,13 +4974,13 @@
         <v>-0.1824179560157773</v>
       </c>
       <c r="C174">
-        <v>0.1343227162704452</v>
+        <v>0.1358366990677859</v>
       </c>
       <c r="D174">
-        <v>-0.520269146932604</v>
+        <v>-0.5247346929951978</v>
       </c>
       <c r="E174">
-        <v>0.1554332349010492</v>
+        <v>0.1598987809636432</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -5001,13 +5001,13 @@
         <v>0.01191736165713834</v>
       </c>
       <c r="C175">
-        <v>0.07760875278079681</v>
+        <v>0.07502417978593412</v>
       </c>
       <c r="D175">
-        <v>-0.1832857304227601</v>
+        <v>-0.1771481309168706</v>
       </c>
       <c r="E175">
-        <v>0.2071204537370367</v>
+        <v>0.2009828542311473</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -5028,13 +5028,13 @@
         <v>0.07124079405592273</v>
       </c>
       <c r="C176">
-        <v>0.0588906019268589</v>
+        <v>0.05489920211857583</v>
       </c>
       <c r="D176">
-        <v>-0.07688202944876976</v>
+        <v>-0.06710853172257278</v>
       </c>
       <c r="E176">
-        <v>0.2193636175606152</v>
+        <v>0.2095901198344182</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -5073,13 +5073,13 @@
         <v>0.0003757727289490642</v>
       </c>
       <c r="C178">
-        <v>0.05693467435231499</v>
+        <v>0.05440234026490986</v>
       </c>
       <c r="D178">
-        <v>-0.1428274624979406</v>
+        <v>-0.136721430982066</v>
       </c>
       <c r="E178">
-        <v>0.1435790079558387</v>
+        <v>0.1374729764399641</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -5100,13 +5100,13 @@
         <v>-0.1328920698704375</v>
       </c>
       <c r="C179">
-        <v>0.1457625180360619</v>
+        <v>0.1323325995173314</v>
       </c>
       <c r="D179">
-        <v>-0.4995168797080157</v>
+        <v>-0.466378263024849</v>
       </c>
       <c r="E179">
-        <v>0.2337327399671406</v>
+        <v>0.2005941232839739</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -5127,13 +5127,13 @@
         <v>0.03952386133747812</v>
       </c>
       <c r="C180">
-        <v>0.1889835924211858</v>
+        <v>0.1966964693571126</v>
       </c>
       <c r="D180">
-        <v>-0.4358114619498029</v>
+        <v>-0.4561631954578197</v>
       </c>
       <c r="E180">
-        <v>0.5148591846247591</v>
+        <v>0.535210918132776</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -5154,13 +5154,13 @@
         <v>0.2876971797193003</v>
       </c>
       <c r="C181">
-        <v>0.2184322507185923</v>
+        <v>0.2278873696002075</v>
       </c>
       <c r="D181">
-        <v>-0.2617079997541052</v>
+        <v>-0.2865928412818538</v>
       </c>
       <c r="E181">
-        <v>0.8371023591927058</v>
+        <v>0.8619872007204544</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>

--- a/data/model_data/all_estimators_results.xlsx
+++ b/data/model_data/all_estimators_results.xlsx
@@ -399,16 +399,16 @@
         <v>-6</v>
       </c>
       <c r="B2">
-        <v>0.4886288694919514</v>
+        <v>-0.3926453538196602</v>
       </c>
       <c r="C2">
-        <v>0.4069850868489862</v>
+        <v>0.4070977585076004</v>
       </c>
       <c r="D2">
-        <v>-0.3095624920204791</v>
+        <v>-1.191057690369013</v>
       </c>
       <c r="E2">
-        <v>1.286820231004382</v>
+        <v>0.4057669827296922</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -417,7 +417,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -426,16 +426,16 @@
         <v>-5</v>
       </c>
       <c r="B3">
-        <v>0.2276017781304399</v>
+        <v>-0.200854501495167</v>
       </c>
       <c r="C3">
-        <v>0.2993330331711428</v>
+        <v>0.3180502638881966</v>
       </c>
       <c r="D3">
-        <v>-0.3594591462448416</v>
+        <v>-0.8246242202527126</v>
       </c>
       <c r="E3">
-        <v>0.8146627025057214</v>
+        <v>0.4229152172623786</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -444,7 +444,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -453,16 +453,16 @@
         <v>-4</v>
       </c>
       <c r="B4">
-        <v>0.1446167313367328</v>
+        <v>-0.138407229758426</v>
       </c>
       <c r="C4">
-        <v>0.2323285519404361</v>
+        <v>0.267566871335219</v>
       </c>
       <c r="D4">
-        <v>-0.3110329943751027</v>
+        <v>-0.6631674045849936</v>
       </c>
       <c r="E4">
-        <v>0.6002664570485683</v>
+        <v>0.3863529450681416</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -471,7 +471,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -480,16 +480,16 @@
         <v>-3</v>
       </c>
       <c r="B5">
-        <v>0.2857885915913139</v>
+        <v>-0.05353693810701587</v>
       </c>
       <c r="C5">
-        <v>0.1939983467867456</v>
+        <v>0.2189546082168556</v>
       </c>
       <c r="D5">
-        <v>-0.09468678590164609</v>
+        <v>-0.4829572841819599</v>
       </c>
       <c r="E5">
-        <v>0.666263969084274</v>
+        <v>0.3758834079679281</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -498,7 +498,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -507,16 +507,16 @@
         <v>-2</v>
       </c>
       <c r="B6">
-        <v>0.1540505342151343</v>
+        <v>-0.002657983245990841</v>
       </c>
       <c r="C6">
-        <v>0.1245026833566785</v>
+        <v>0.1826534199763458</v>
       </c>
       <c r="D6">
-        <v>-0.09012786335178327</v>
+        <v>-0.3608833499408599</v>
       </c>
       <c r="E6">
-        <v>0.3982289317820519</v>
+        <v>0.3555673834488783</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -534,16 +534,16 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>-1.118510044218743</v>
+        <v>-0.4818711667056779</v>
       </c>
       <c r="C7">
-        <v>0.1452963637243231</v>
+        <v>0.153158592246999</v>
       </c>
       <c r="D7">
-        <v>-1.403469631514273</v>
+        <v>-0.7822503924396191</v>
       </c>
       <c r="E7">
-        <v>-0.8335504569232122</v>
+        <v>-0.1814919409717366</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -552,7 +552,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -561,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>-1.763142533034688</v>
+        <v>-0.8085347465693451</v>
       </c>
       <c r="C8">
-        <v>0.204523855603085</v>
+        <v>0.259688000547472</v>
       </c>
       <c r="D8">
-        <v>-2.164260854173989</v>
+        <v>-1.317842643647992</v>
       </c>
       <c r="E8">
-        <v>-1.362024211895386</v>
+        <v>-0.2992268494906986</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -588,16 +588,16 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>-2.116857854536002</v>
+        <v>-0.9886290340056696</v>
       </c>
       <c r="C9">
-        <v>0.2844831788230772</v>
+        <v>0.3561922597964213</v>
       </c>
       <c r="D9">
-        <v>-2.674794799081669</v>
+        <v>-1.687203979363776</v>
       </c>
       <c r="E9">
-        <v>-1.558920909990336</v>
+        <v>-0.2900540886475629</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -615,16 +615,16 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>-2.606616708009278</v>
+        <v>-1.027034812087778</v>
       </c>
       <c r="C10">
-        <v>0.42033541060427</v>
+        <v>0.5052504894471023</v>
       </c>
       <c r="D10">
-        <v>-3.430991124968199</v>
+        <v>-2.017947229048761</v>
       </c>
       <c r="E10">
-        <v>-1.782242291050357</v>
+        <v>-0.03612239512679549</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -633,7 +633,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -642,16 +642,16 @@
         <v>-6</v>
       </c>
       <c r="B11">
-        <v>0.5870702272530844</v>
+        <v>-0.2396140393469141</v>
       </c>
       <c r="C11">
-        <v>0.4531565793043384</v>
+        <v>0.3901038375615092</v>
       </c>
       <c r="D11">
-        <v>-0.3016762015855109</v>
+        <v>-1.00469924023104</v>
       </c>
       <c r="E11">
-        <v>1.47581665609168</v>
+        <v>0.5254711615372113</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -669,16 +669,16 @@
         <v>-5</v>
       </c>
       <c r="B12">
-        <v>0.07098023546179824</v>
+        <v>-0.1374756589886411</v>
       </c>
       <c r="C12">
-        <v>0.3335907167119473</v>
+        <v>0.3291012112566799</v>
       </c>
       <c r="D12">
-        <v>-0.5832694691912538</v>
+        <v>-0.7829203895491936</v>
       </c>
       <c r="E12">
-        <v>0.7252299401148502</v>
+        <v>0.5079690715719116</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -696,16 +696,16 @@
         <v>-4</v>
       </c>
       <c r="B13">
-        <v>-0.07055101207486386</v>
+        <v>-0.2274283973846063</v>
       </c>
       <c r="C13">
-        <v>0.2927338864215536</v>
+        <v>0.3082971711101374</v>
       </c>
       <c r="D13">
-        <v>-0.6446708815393918</v>
+        <v>-0.8320715215466851</v>
       </c>
       <c r="E13">
-        <v>0.5035688573896642</v>
+        <v>0.3772147267774725</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -723,16 +723,16 @@
         <v>-3</v>
       </c>
       <c r="B14">
-        <v>0.3072556593048199</v>
+        <v>-0.005171522130939382</v>
       </c>
       <c r="C14">
-        <v>0.2863021769005229</v>
+        <v>0.2381679336549978</v>
       </c>
       <c r="D14">
-        <v>-0.2542501179690608</v>
+        <v>-0.4722747490656395</v>
       </c>
       <c r="E14">
-        <v>0.8687614365787006</v>
+        <v>0.4619317048037608</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -741,7 +741,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -750,16 +750,16 @@
         <v>-2</v>
       </c>
       <c r="B15">
-        <v>0.223416943130731</v>
+        <v>0.0273322460325492</v>
       </c>
       <c r="C15">
-        <v>0.1751116370492124</v>
+        <v>0.1913663263580518</v>
       </c>
       <c r="D15">
-        <v>-0.1200180839287511</v>
+        <v>-0.3479820424894698</v>
       </c>
       <c r="E15">
-        <v>0.5668519701902132</v>
+        <v>0.4026465345545682</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>-1.267120215603504</v>
+        <v>-0.4270658898722434</v>
       </c>
       <c r="C16">
-        <v>0.1826675689463184</v>
+        <v>0.1764261195742165</v>
       </c>
       <c r="D16">
-        <v>-1.625374198840141</v>
+        <v>-0.7730789257331458</v>
       </c>
       <c r="E16">
-        <v>-0.9088662323668666</v>
+        <v>-0.08105285401134088</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -804,16 +804,16 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>-2.01607630875431</v>
+        <v>-0.9306712073073651</v>
       </c>
       <c r="C17">
-        <v>0.2997005068801265</v>
+        <v>0.3348041275865692</v>
       </c>
       <c r="D17">
-        <v>-2.60385935632636</v>
+        <v>-1.587300695529244</v>
       </c>
       <c r="E17">
-        <v>-1.42829326118226</v>
+        <v>-0.2740417190854865</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -822,7 +822,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -831,16 +831,16 @@
         <v>2</v>
       </c>
       <c r="B18">
-        <v>-2.194234007908383</v>
+        <v>-0.9805703659876704</v>
       </c>
       <c r="C18">
-        <v>0.340024373407223</v>
+        <v>0.4152642850514802</v>
       </c>
       <c r="D18">
-        <v>-2.861101623617869</v>
+        <v>-1.795001110721166</v>
       </c>
       <c r="E18">
-        <v>-1.527366392198898</v>
+        <v>-0.1661396212541751</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -858,16 +858,16 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>-2.643868546789557</v>
+        <v>-0.5817345904300066</v>
       </c>
       <c r="C19">
-        <v>0.4231601641309293</v>
+        <v>0.5259962844409212</v>
       </c>
       <c r="D19">
-        <v>-3.47378496392612</v>
+        <v>-1.613336779891505</v>
       </c>
       <c r="E19">
-        <v>-1.813952129652994</v>
+        <v>0.449867599031492</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -885,16 +885,16 @@
         <v>-6</v>
       </c>
       <c r="B20">
-        <v>0.5870702272530597</v>
+        <v>-0.2396140393470111</v>
       </c>
       <c r="C20">
-        <v>0.4564188897658955</v>
+        <v>0.39087186397441</v>
       </c>
       <c r="D20">
-        <v>-0.4943562915589921</v>
+        <v>-1.206554479042627</v>
       </c>
       <c r="E20">
-        <v>1.668496746065111</v>
+        <v>0.7273264003486051</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -912,16 +912,16 @@
         <v>-5</v>
       </c>
       <c r="B21">
-        <v>0.07098023546184942</v>
+        <v>-0.1374756589886744</v>
       </c>
       <c r="C21">
-        <v>0.3387830344748017</v>
+        <v>0.3408254676471096</v>
       </c>
       <c r="D21">
-        <v>-0.73172308339637</v>
+        <v>-0.980611115696134</v>
       </c>
       <c r="E21">
-        <v>0.8736835543200688</v>
+        <v>0.7056597977187852</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -939,16 +939,16 @@
         <v>-4</v>
       </c>
       <c r="B22">
-        <v>-0.09207466635658938</v>
+        <v>-0.2341110531532761</v>
       </c>
       <c r="C22">
-        <v>0.3008354979059409</v>
+        <v>0.3177470963872325</v>
       </c>
       <c r="D22">
-        <v>-0.8048661229117282</v>
+        <v>-1.020155139234618</v>
       </c>
       <c r="E22">
-        <v>0.6207167901985495</v>
+        <v>0.5519330329280664</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -966,16 +966,16 @@
         <v>-3</v>
       </c>
       <c r="B23">
-        <v>0.285399278151076</v>
+        <v>-0.01177717135546133</v>
       </c>
       <c r="C23">
-        <v>0.3395836908730216</v>
+        <v>0.2486132959922285</v>
       </c>
       <c r="D23">
-        <v>-0.5192010942272897</v>
+        <v>-0.6267977750299182</v>
       </c>
       <c r="E23">
-        <v>1.089999650529442</v>
+        <v>0.6032434323189956</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -993,16 +993,16 @@
         <v>-2</v>
       </c>
       <c r="B24">
-        <v>0.2234169431307561</v>
+        <v>0.02733224603251</v>
       </c>
       <c r="C24">
-        <v>0.1883527706350583</v>
+        <v>0.2081040013657307</v>
       </c>
       <c r="D24">
-        <v>-0.2228609950171405</v>
+        <v>-0.487476296431858</v>
       </c>
       <c r="E24">
-        <v>0.6696948812786527</v>
+        <v>0.5421407884968781</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -1038,16 +1038,16 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>-1.267120215603461</v>
+        <v>-0.4270658898722482</v>
       </c>
       <c r="C26">
-        <v>0.2096782888003118</v>
+        <v>0.1720278783698308</v>
       </c>
       <c r="D26">
-        <v>-1.763926257185337</v>
+        <v>-0.8526291695093784</v>
       </c>
       <c r="E26">
-        <v>-0.7703141740215844</v>
+        <v>-0.001502610235118051</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -1065,16 +1065,16 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>-2.016076308754292</v>
+        <v>-0.9306712073074095</v>
       </c>
       <c r="C27">
-        <v>0.3466722890782858</v>
+        <v>0.3150823967056441</v>
       </c>
       <c r="D27">
-        <v>-2.837472213158749</v>
+        <v>-1.71012334825468</v>
       </c>
       <c r="E27">
-        <v>-1.194680404349835</v>
+        <v>-0.1512190663601393</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -1092,16 +1092,16 @@
         <v>2</v>
       </c>
       <c r="B28">
-        <v>-1.92912244068592</v>
+        <v>-0.7637652278853471</v>
       </c>
       <c r="C28">
-        <v>0.3792506748328848</v>
+        <v>0.4249372135732636</v>
       </c>
       <c r="D28">
-        <v>-2.827708687306894</v>
+        <v>-1.814976670831422</v>
       </c>
       <c r="E28">
-        <v>-1.030536194064946</v>
+        <v>0.287446215060728</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -1119,16 +1119,16 @@
         <v>3</v>
       </c>
       <c r="B29">
-        <v>-2.069460151140822</v>
+        <v>-0.1119901245415251</v>
       </c>
       <c r="C29">
-        <v>0.5746163791856759</v>
+        <v>0.6132250599240232</v>
       </c>
       <c r="D29">
-        <v>-3.43094059055445</v>
+        <v>-1.628988823414682</v>
       </c>
       <c r="E29">
-        <v>-0.7079797117271949</v>
+        <v>1.405008574331632</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -1146,16 +1146,16 @@
         <v>-6</v>
       </c>
       <c r="B30">
-        <v>0.5870702272529496</v>
+        <v>-0.2396140393470727</v>
       </c>
       <c r="C30">
-        <v>0.4533721111284137</v>
+        <v>0.3902894294720077</v>
       </c>
       <c r="D30">
-        <v>-0.3015227821536322</v>
+        <v>-1.004567264658893</v>
       </c>
       <c r="E30">
-        <v>1.475663236659531</v>
+        <v>0.5253391859647478</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -1173,16 +1173,16 @@
         <v>-5</v>
       </c>
       <c r="B31">
-        <v>0.07098023546184204</v>
+        <v>-0.1374756589886941</v>
       </c>
       <c r="C31">
-        <v>0.3337492775143009</v>
+        <v>0.3292577292975756</v>
       </c>
       <c r="D31">
-        <v>-0.5831563283324513</v>
+        <v>-0.7828089500433807</v>
       </c>
       <c r="E31">
-        <v>0.7251167992561355</v>
+        <v>0.5078576320659925</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -1200,16 +1200,16 @@
         <v>-4</v>
       </c>
       <c r="B32">
-        <v>-0.09207466635662007</v>
+        <v>-0.234111053153303</v>
       </c>
       <c r="C32">
-        <v>0.2929169971453315</v>
+        <v>0.3076774121306279</v>
       </c>
       <c r="D32">
-        <v>-0.6661814312210916</v>
+        <v>-0.8371476997858207</v>
       </c>
       <c r="E32">
-        <v>0.4820320985078514</v>
+        <v>0.3689255934792146</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -1227,16 +1227,16 @@
         <v>-3</v>
       </c>
       <c r="B33">
-        <v>0.2853992781510189</v>
+        <v>-0.01177717135549509</v>
       </c>
       <c r="C33">
-        <v>0.2868203843669335</v>
+        <v>0.2383348518980478</v>
       </c>
       <c r="D33">
-        <v>-0.2767583452401057</v>
+        <v>-0.4789048973363564</v>
       </c>
       <c r="E33">
-        <v>0.8475569015421436</v>
+        <v>0.4553505546253662</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -1254,16 +1254,16 @@
         <v>-2</v>
       </c>
       <c r="B34">
-        <v>0.2234169431306919</v>
+        <v>0.02733224603247397</v>
       </c>
       <c r="C34">
-        <v>0.175194931047639</v>
+        <v>0.191457331665123</v>
       </c>
       <c r="D34">
-        <v>-0.1199588119966586</v>
+        <v>-0.347917228607307</v>
       </c>
       <c r="E34">
-        <v>0.5667926982580423</v>
+        <v>0.402581720672255</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -1299,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="B36">
-        <v>-1.267120215603452</v>
+        <v>-0.427065889872247</v>
       </c>
       <c r="C36">
-        <v>0.1827544492452936</v>
+        <v>0.1765100323497457</v>
       </c>
       <c r="D36">
-        <v>-1.625312354138681</v>
+        <v>-0.7730191961877484</v>
       </c>
       <c r="E36">
-        <v>-0.9089280770682234</v>
+        <v>-0.08111258355674567</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -1326,16 +1326,16 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>-2.016076308754345</v>
+        <v>-0.9306712073074427</v>
       </c>
       <c r="C37">
-        <v>0.2998430500581299</v>
+        <v>0.3349633712489801</v>
       </c>
       <c r="D37">
-        <v>-2.60375788788292</v>
+        <v>-1.587187351095563</v>
       </c>
       <c r="E37">
-        <v>-1.42839472962577</v>
+        <v>-0.2741550635193225</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -1353,16 +1353,16 @@
         <v>2</v>
       </c>
       <c r="B38">
-        <v>-1.929122440685982</v>
+        <v>-0.7637652278853779</v>
       </c>
       <c r="C38">
-        <v>0.3687201055153195</v>
+        <v>0.4472254564838417</v>
       </c>
       <c r="D38">
-        <v>-2.651800567871817</v>
+        <v>-1.640311015563193</v>
       </c>
       <c r="E38">
-        <v>-1.206444313500148</v>
+        <v>0.1127805597924368</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -1380,16 +1380,16 @@
         <v>3</v>
       </c>
       <c r="B39">
-        <v>-2.069460151140795</v>
+        <v>-0.1119901245415127</v>
       </c>
       <c r="C39">
-        <v>0.5668169696860279</v>
+        <v>0.6480804291738572</v>
       </c>
       <c r="D39">
-        <v>-3.180400997551541</v>
+        <v>-1.382204424807534</v>
       </c>
       <c r="E39">
-        <v>-0.9585193047300493</v>
+        <v>1.158224175724508</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>PREVSOC_per_trab</t>
+          <t>BEN_per_trab</t>
         </is>
       </c>
     </row>
@@ -1407,16 +1407,16 @@
         <v>-6</v>
       </c>
       <c r="B40">
-        <v>0.422456714913885</v>
+        <v>0.4886288694919514</v>
       </c>
       <c r="C40">
-        <v>1.477513038999954</v>
+        <v>0.4069850868489862</v>
       </c>
       <c r="D40">
-        <v>-2.475286181226536</v>
+        <v>-0.3095624920204791</v>
       </c>
       <c r="E40">
-        <v>3.320199611054306</v>
+        <v>1.286820231004382</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -1434,16 +1434,16 @@
         <v>-5</v>
       </c>
       <c r="B41">
-        <v>0.2790653872613075</v>
+        <v>0.2276017781304399</v>
       </c>
       <c r="C41">
-        <v>1.006593013567179</v>
+        <v>0.2993330331711428</v>
       </c>
       <c r="D41">
-        <v>-1.695095027825873</v>
+        <v>-0.3594591462448416</v>
       </c>
       <c r="E41">
-        <v>2.253225802348488</v>
+        <v>0.8146627025057214</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -1461,16 +1461,16 @@
         <v>-4</v>
       </c>
       <c r="B42">
-        <v>-0.1005842951639727</v>
+        <v>0.1446167313367328</v>
       </c>
       <c r="C42">
-        <v>0.764036803694102</v>
+        <v>0.2323285519404361</v>
       </c>
       <c r="D42">
-        <v>-1.599036194981343</v>
+        <v>-0.3110329943751027</v>
       </c>
       <c r="E42">
-        <v>1.397867604653398</v>
+        <v>0.6002664570485683</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -1488,16 +1488,16 @@
         <v>-3</v>
       </c>
       <c r="B43">
-        <v>0.1821447554249226</v>
+        <v>0.2857885915913139</v>
       </c>
       <c r="C43">
-        <v>0.6643552691598343</v>
+        <v>0.1939983467867456</v>
       </c>
       <c r="D43">
-        <v>-1.120808728508039</v>
+        <v>-0.09468678590164609</v>
       </c>
       <c r="E43">
-        <v>1.485098239357884</v>
+        <v>0.666263969084274</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -1515,16 +1515,16 @@
         <v>-2</v>
       </c>
       <c r="B44">
-        <v>-0.2680875132606301</v>
+        <v>0.1540505342151343</v>
       </c>
       <c r="C44">
-        <v>0.4034296973395813</v>
+        <v>0.1245026833566785</v>
       </c>
       <c r="D44">
-        <v>-1.059305938208749</v>
+        <v>-0.09012786335178327</v>
       </c>
       <c r="E44">
-        <v>0.5231309116874887</v>
+        <v>0.3982289317820519</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -1542,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="B45">
-        <v>-0.3619032341987272</v>
+        <v>-1.118510044218743</v>
       </c>
       <c r="C45">
-        <v>0.3946094937877982</v>
+        <v>0.1452963637243231</v>
       </c>
       <c r="D45">
-        <v>-1.135823211342966</v>
+        <v>-1.403469631514273</v>
       </c>
       <c r="E45">
-        <v>0.4120167429455122</v>
+        <v>-0.8335504569232122</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -1569,16 +1569,16 @@
         <v>1</v>
       </c>
       <c r="B46">
-        <v>-0.4576801075631924</v>
+        <v>-1.763142533034688</v>
       </c>
       <c r="C46">
-        <v>0.6627929964117573</v>
+        <v>0.204523855603085</v>
       </c>
       <c r="D46">
-        <v>-1.757569615315857</v>
+        <v>-2.164260854173989</v>
       </c>
       <c r="E46">
-        <v>0.8422094001894718</v>
+        <v>-1.362024211895386</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -1596,16 +1596,16 @@
         <v>2</v>
       </c>
       <c r="B47">
-        <v>-0.0429381700793352</v>
+        <v>-2.116857854536002</v>
       </c>
       <c r="C47">
-        <v>0.942323313208895</v>
+        <v>0.2844831788230772</v>
       </c>
       <c r="D47">
-        <v>-1.891050920791016</v>
+        <v>-2.674794799081669</v>
       </c>
       <c r="E47">
-        <v>1.805174580632346</v>
+        <v>-1.558920909990336</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -1623,16 +1623,16 @@
         <v>3</v>
       </c>
       <c r="B48">
-        <v>0.804253519699842</v>
+        <v>-2.606616708009278</v>
       </c>
       <c r="C48">
-        <v>1.572641074683731</v>
+        <v>0.42033541060427</v>
       </c>
       <c r="D48">
-        <v>-2.280057333778563</v>
+        <v>-3.430991124968199</v>
       </c>
       <c r="E48">
-        <v>3.888564373178247</v>
+        <v>-1.782242291050357</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -1650,16 +1650,16 @@
         <v>-6</v>
       </c>
       <c r="B49">
-        <v>1.13768065984477</v>
+        <v>0.5870702272530844</v>
       </c>
       <c r="C49">
-        <v>1.619163498376956</v>
+        <v>0.4531565793043384</v>
       </c>
       <c r="D49">
-        <v>-2.037879053085893</v>
+        <v>-0.3016762015855109</v>
       </c>
       <c r="E49">
-        <v>4.313240372775433</v>
+        <v>1.47581665609168</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -1677,16 +1677,16 @@
         <v>-5</v>
       </c>
       <c r="B50">
-        <v>0.3291074484860071</v>
+        <v>0.07098023546179824</v>
       </c>
       <c r="C50">
-        <v>1.063564597030673</v>
+        <v>0.3335907167119473</v>
       </c>
       <c r="D50">
-        <v>-1.756792394127447</v>
+        <v>-0.5832694691912538</v>
       </c>
       <c r="E50">
-        <v>2.415007291099461</v>
+        <v>0.7252299401148502</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -1704,16 +1704,16 @@
         <v>-4</v>
       </c>
       <c r="B51">
-        <v>-0.3699668395371867</v>
+        <v>-0.07055101207486386</v>
       </c>
       <c r="C51">
-        <v>0.9336076754292705</v>
+        <v>0.2927338864215536</v>
       </c>
       <c r="D51">
-        <v>-2.200990651985943</v>
+        <v>-0.6446708815393918</v>
       </c>
       <c r="E51">
-        <v>1.461056972911569</v>
+        <v>0.5035688573896642</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -1731,16 +1731,16 @@
         <v>-3</v>
       </c>
       <c r="B52">
-        <v>0.6759227342917624</v>
+        <v>0.3072556593048199</v>
       </c>
       <c r="C52">
-        <v>1.074624998822291</v>
+        <v>0.2863021769005229</v>
       </c>
       <c r="D52">
-        <v>-1.431669152623267</v>
+        <v>-0.2542501179690608</v>
       </c>
       <c r="E52">
-        <v>2.783514621206792</v>
+        <v>0.8687614365787006</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1758,16 @@
         <v>-2</v>
       </c>
       <c r="B53">
-        <v>0.178409157912549</v>
+        <v>0.223416943130731</v>
       </c>
       <c r="C53">
-        <v>0.614859381366587</v>
+        <v>0.1751116370492124</v>
       </c>
       <c r="D53">
-        <v>-1.027474424901915</v>
+        <v>-0.1200180839287511</v>
       </c>
       <c r="E53">
-        <v>1.384292740727013</v>
+        <v>0.5668519701902132</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -1785,16 +1785,16 @@
         <v>0</v>
       </c>
       <c r="B54">
-        <v>-0.1978080842214098</v>
+        <v>-1.267120215603504</v>
       </c>
       <c r="C54">
-        <v>0.5935981469276932</v>
+        <v>0.1826675689463184</v>
       </c>
       <c r="D54">
-        <v>-1.361993395305438</v>
+        <v>-1.625374198840141</v>
       </c>
       <c r="E54">
-        <v>0.9663772268626181</v>
+        <v>-0.9088662323668666</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -1812,16 +1812,16 @@
         <v>1</v>
       </c>
       <c r="B55">
-        <v>-0.0412611669006043</v>
+        <v>-2.01607630875431</v>
       </c>
       <c r="C55">
-        <v>0.9959041083638257</v>
+        <v>0.2997005068801265</v>
       </c>
       <c r="D55">
-        <v>-1.994462908190123</v>
+        <v>-2.60385935632636</v>
       </c>
       <c r="E55">
-        <v>1.911940574388914</v>
+        <v>-1.42829326118226</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -1839,16 +1839,16 @@
         <v>2</v>
       </c>
       <c r="B56">
-        <v>0.1793257367755999</v>
+        <v>-2.194234007908383</v>
       </c>
       <c r="C56">
-        <v>1.109255500607769</v>
+        <v>0.340024373407223</v>
       </c>
       <c r="D56">
-        <v>-1.996184693522339</v>
+        <v>-2.861101623617869</v>
       </c>
       <c r="E56">
-        <v>2.354836167073539</v>
+        <v>-1.527366392198898</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -1866,16 +1866,16 @@
         <v>3</v>
       </c>
       <c r="B57">
-        <v>0.707749490886453</v>
+        <v>-2.643868546789557</v>
       </c>
       <c r="C57">
-        <v>1.549858053601496</v>
+        <v>0.4231601641309293</v>
       </c>
       <c r="D57">
-        <v>-2.331885975643953</v>
+        <v>-3.47378496392612</v>
       </c>
       <c r="E57">
-        <v>3.747384957416859</v>
+        <v>-1.813952129652994</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -1893,16 +1893,16 @@
         <v>-6</v>
       </c>
       <c r="B58">
-        <v>1.137680659844869</v>
+        <v>0.5870702272530597</v>
       </c>
       <c r="C58">
-        <v>1.614270784948157</v>
+        <v>0.4601602351000993</v>
       </c>
       <c r="D58">
-        <v>-2.63015957913734</v>
+        <v>-0.5342510411560601</v>
       </c>
       <c r="E58">
-        <v>4.905520898827079</v>
+        <v>1.70839149566218</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -1920,16 +1920,16 @@
         <v>-5</v>
       </c>
       <c r="B59">
-        <v>0.3291074484860063</v>
+        <v>0.07098023546184942</v>
       </c>
       <c r="C59">
-        <v>1.0297151701208</v>
+        <v>0.3498647663289067</v>
       </c>
       <c r="D59">
-        <v>-2.074332103816965</v>
+        <v>-0.7815723617138931</v>
       </c>
       <c r="E59">
-        <v>2.732547000788977</v>
+        <v>0.9235328326375919</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -1947,16 +1947,16 @@
         <v>-4</v>
       </c>
       <c r="B60">
-        <v>-0.4999010040638062</v>
+        <v>-0.09207466635658938</v>
       </c>
       <c r="C60">
-        <v>0.9070117498557281</v>
+        <v>0.3044611126782634</v>
       </c>
       <c r="D60">
-        <v>-2.616940722679437</v>
+        <v>-0.833987363300899</v>
       </c>
       <c r="E60">
-        <v>1.617138714551825</v>
+        <v>0.6498380305877203</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -1974,16 +1974,16 @@
         <v>-3</v>
       </c>
       <c r="B61">
-        <v>0.5450368040789084</v>
+        <v>0.285399278151076</v>
       </c>
       <c r="C61">
-        <v>1.277104601854372</v>
+        <v>0.3415988798144477</v>
       </c>
       <c r="D61">
-        <v>-2.435829945864035</v>
+        <v>-0.5470109563346293</v>
       </c>
       <c r="E61">
-        <v>3.525903554021852</v>
+        <v>1.117809512636781</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -2001,16 +2001,16 @@
         <v>-2</v>
       </c>
       <c r="B62">
-        <v>0.1784091579125804</v>
+        <v>0.2234169431307561</v>
       </c>
       <c r="C62">
-        <v>0.6778607094791343</v>
+        <v>0.189888175893869</v>
       </c>
       <c r="D62">
-        <v>-1.403773262419419</v>
+        <v>-0.2393037224280339</v>
       </c>
       <c r="E62">
-        <v>1.76059157824458</v>
+        <v>0.6861376086895461</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -2046,16 +2046,16 @@
         <v>0</v>
       </c>
       <c r="B64">
-        <v>-0.1978080842214399</v>
+        <v>-1.267120215603461</v>
       </c>
       <c r="C64">
-        <v>0.634782068441832</v>
+        <v>0.1790585690231957</v>
       </c>
       <c r="D64">
-        <v>-1.679441427747697</v>
+        <v>-1.703451229066489</v>
       </c>
       <c r="E64">
-        <v>1.283825259304818</v>
+        <v>-0.8307892021404324</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -2073,16 +2073,16 @@
         <v>1</v>
       </c>
       <c r="B65">
-        <v>-0.04126116690060403</v>
+        <v>-2.016076308754292</v>
       </c>
       <c r="C65">
-        <v>1.136319311373414</v>
+        <v>0.3101737823951707</v>
       </c>
       <c r="D65">
-        <v>-2.693523516964014</v>
+        <v>-2.771909674118747</v>
       </c>
       <c r="E65">
-        <v>2.611001183162806</v>
+        <v>-1.260242943389836</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -2100,16 +2100,16 @@
         <v>2</v>
       </c>
       <c r="B66">
-        <v>1.343072547526181</v>
+        <v>-1.92912244068592</v>
       </c>
       <c r="C66">
-        <v>1.40343148511451</v>
+        <v>0.3620150160878739</v>
       </c>
       <c r="D66">
-        <v>-1.932651495536914</v>
+        <v>-2.81128284060509</v>
       </c>
       <c r="E66">
-        <v>4.618796590589275</v>
+        <v>-1.046962040766751</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -2127,16 +2127,16 @@
         <v>3</v>
       </c>
       <c r="B67">
-        <v>3.229200914179287</v>
+        <v>-2.069460151140822</v>
       </c>
       <c r="C67">
-        <v>2.533318530882287</v>
+        <v>0.6185942944631646</v>
       </c>
       <c r="D67">
-        <v>-2.683772044148844</v>
+        <v>-3.576854502039463</v>
       </c>
       <c r="E67">
-        <v>9.142173872507417</v>
+        <v>-0.5620658002421812</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -2154,16 +2154,16 @@
         <v>-6</v>
       </c>
       <c r="B68">
-        <v>1.137680659844946</v>
+        <v>0.5870702272529496</v>
       </c>
       <c r="C68">
-        <v>1.619933767233679</v>
+        <v>0.4533721111284137</v>
       </c>
       <c r="D68">
-        <v>-2.037331181273355</v>
+        <v>-0.3015227821536322</v>
       </c>
       <c r="E68">
-        <v>4.312692500963248</v>
+        <v>1.475663236659531</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -2181,16 +2181,16 @@
         <v>-5</v>
       </c>
       <c r="B69">
-        <v>0.3291074484860603</v>
+        <v>0.07098023546184204</v>
       </c>
       <c r="C69">
-        <v>1.064070428466969</v>
+        <v>0.3337492775143009</v>
       </c>
       <c r="D69">
-        <v>-1.756432268323302</v>
+        <v>-0.5831563283324513</v>
       </c>
       <c r="E69">
-        <v>2.414647165295423</v>
+        <v>0.7251167992561355</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -2208,16 +2208,16 @@
         <v>-4</v>
       </c>
       <c r="B70">
-        <v>-0.4999010040637717</v>
+        <v>-0.09207466635662007</v>
       </c>
       <c r="C70">
-        <v>0.9383667553053323</v>
+        <v>0.2929169971453315</v>
       </c>
       <c r="D70">
-        <v>-2.339066048751932</v>
+        <v>-0.6661814312210916</v>
       </c>
       <c r="E70">
-        <v>1.339264040624389</v>
+        <v>0.4820320985078514</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -2235,16 +2235,16 @@
         <v>-3</v>
       </c>
       <c r="B71">
-        <v>0.5450368040789334</v>
+        <v>0.2853992781510189</v>
       </c>
       <c r="C71">
-        <v>1.078998637284031</v>
+        <v>0.2868203843669335</v>
       </c>
       <c r="D71">
-        <v>-1.569761664365565</v>
+        <v>-0.2767583452401057</v>
       </c>
       <c r="E71">
-        <v>2.659835272523432</v>
+        <v>0.8475569015421436</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -2262,16 +2262,16 @@
         <v>-2</v>
       </c>
       <c r="B72">
-        <v>0.178409157912596</v>
+        <v>0.2234169431306919</v>
       </c>
       <c r="C72">
-        <v>0.6151517490135194</v>
+        <v>0.175194931047639</v>
       </c>
       <c r="D72">
-        <v>-1.027266115180725</v>
+        <v>-0.1199588119966586</v>
       </c>
       <c r="E72">
-        <v>1.384084431005916</v>
+        <v>0.5667926982580423</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -2298,7 +2298,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -2307,16 +2307,16 @@
         <v>0</v>
       </c>
       <c r="B74">
-        <v>-0.1978080842214028</v>
+        <v>-1.267120215603452</v>
       </c>
       <c r="C74">
-        <v>0.593880654797925</v>
+        <v>0.1827544492452936</v>
       </c>
       <c r="D74">
-        <v>-1.3617927787404</v>
+        <v>-1.625312354138681</v>
       </c>
       <c r="E74">
-        <v>0.9661766102975943</v>
+        <v>-0.9089280770682234</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -2334,16 +2334,16 @@
         <v>1</v>
       </c>
       <c r="B75">
-        <v>-0.04126116690054715</v>
+        <v>-2.016076308754345</v>
       </c>
       <c r="C75">
-        <v>0.996378476790924</v>
+        <v>0.2998430500581299</v>
       </c>
       <c r="D75">
-        <v>-1.994127096381636</v>
+        <v>-2.60375788788292</v>
       </c>
       <c r="E75">
-        <v>1.911604762580541</v>
+        <v>-1.42839472962577</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -2361,16 +2361,16 @@
         <v>2</v>
       </c>
       <c r="B76">
-        <v>1.343072547526262</v>
+        <v>-1.929122440685982</v>
       </c>
       <c r="C76">
-        <v>1.36149155369609</v>
+        <v>0.3687201055153195</v>
       </c>
       <c r="D76">
-        <v>-1.325401862973555</v>
+        <v>-2.651800567871817</v>
       </c>
       <c r="E76">
-        <v>4.011546958026079</v>
+        <v>-1.206444313500148</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -2388,16 +2388,16 @@
         <v>3</v>
       </c>
       <c r="B77">
-        <v>3.229200914179359</v>
+        <v>-2.069460151140795</v>
       </c>
       <c r="C77">
-        <v>2.363611699406585</v>
+        <v>0.5668169696860279</v>
       </c>
       <c r="D77">
-        <v>-1.403392890095059</v>
+        <v>-3.180400997551541</v>
       </c>
       <c r="E77">
-        <v>7.861794718453776</v>
+        <v>-0.9585193047300493</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>SAL_per_trab</t>
+          <t>PREVSOC_per_trab</t>
         </is>
       </c>
     </row>
@@ -2415,16 +2415,16 @@
         <v>-6</v>
       </c>
       <c r="B78">
-        <v>-0.3926453538196602</v>
+        <v>0.05985337166268455</v>
       </c>
       <c r="C78">
-        <v>0.4070977585076004</v>
+        <v>1.323020371605573</v>
       </c>
       <c r="D78">
-        <v>-1.191057690369013</v>
+        <v>-2.534893870543703</v>
       </c>
       <c r="E78">
-        <v>0.4057669827296922</v>
+        <v>2.654600613869072</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -2442,16 +2442,16 @@
         <v>-5</v>
       </c>
       <c r="B79">
-        <v>-0.200854501495167</v>
+        <v>-0.04333178570146815</v>
       </c>
       <c r="C79">
-        <v>0.3180502638881966</v>
+        <v>0.9688773632625625</v>
       </c>
       <c r="D79">
-        <v>-0.8246242202527126</v>
+        <v>-1.943523135975867</v>
       </c>
       <c r="E79">
-        <v>0.4229152172623786</v>
+        <v>1.85685956457293</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -2469,16 +2469,16 @@
         <v>-4</v>
       </c>
       <c r="B80">
-        <v>-0.138407229758426</v>
+        <v>-0.2528882581607179</v>
       </c>
       <c r="C80">
-        <v>0.267566871335219</v>
+        <v>0.8114653740610205</v>
       </c>
       <c r="D80">
-        <v>-0.6631674045849936</v>
+        <v>-1.844358492995867</v>
       </c>
       <c r="E80">
-        <v>0.3863529450681416</v>
+        <v>1.338581976674431</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -2496,16 +2496,16 @@
         <v>-3</v>
       </c>
       <c r="B81">
-        <v>-0.05353693810701587</v>
+        <v>-0.1387054610288112</v>
       </c>
       <c r="C81">
-        <v>0.2189546082168556</v>
+        <v>0.6792053310596793</v>
       </c>
       <c r="D81">
-        <v>-0.4829572841819599</v>
+        <v>-1.470783331848163</v>
       </c>
       <c r="E81">
-        <v>0.3758834079679281</v>
+        <v>1.19337240979054</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -2523,16 +2523,16 @@
         <v>-2</v>
       </c>
       <c r="B82">
-        <v>-0.002657983245990841</v>
+        <v>-0.3830801025251716</v>
       </c>
       <c r="C82">
-        <v>0.1826534199763458</v>
+        <v>0.4284321695002963</v>
       </c>
       <c r="D82">
-        <v>-0.3608833499408599</v>
+        <v>-1.223334125926417</v>
       </c>
       <c r="E82">
-        <v>0.3555673834488783</v>
+        <v>0.4571739208760737</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -2550,16 +2550,16 @@
         <v>0</v>
       </c>
       <c r="B83">
-        <v>-0.4818711667056779</v>
+        <v>-0.3130083836947777</v>
       </c>
       <c r="C83">
-        <v>0.153158592246999</v>
+        <v>0.379966381648964</v>
       </c>
       <c r="D83">
-        <v>-0.7822503924396191</v>
+        <v>-1.058209850032226</v>
       </c>
       <c r="E83">
-        <v>-0.1814919409717366</v>
+        <v>0.4321930826426709</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -2577,16 +2577,16 @@
         <v>1</v>
       </c>
       <c r="B84">
-        <v>-0.8085347465693451</v>
+        <v>-0.4823880798935686</v>
       </c>
       <c r="C84">
-        <v>0.259688000547472</v>
+        <v>0.6371379850925443</v>
       </c>
       <c r="D84">
-        <v>-1.317842643647992</v>
+        <v>-1.731962209819876</v>
       </c>
       <c r="E84">
-        <v>-0.2992268494906986</v>
+        <v>0.7671860500327387</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -2604,16 +2604,16 @@
         <v>2</v>
       </c>
       <c r="B85">
-        <v>-0.9886290340056696</v>
+        <v>0.05775084464309882</v>
       </c>
       <c r="C85">
-        <v>0.3561922597964213</v>
+        <v>0.8309863530648872</v>
       </c>
       <c r="D85">
-        <v>-1.687203979363776</v>
+        <v>-1.572004519826133</v>
       </c>
       <c r="E85">
-        <v>-0.2900540886475629</v>
+        <v>1.687506209112331</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -2631,16 +2631,16 @@
         <v>3</v>
       </c>
       <c r="B86">
-        <v>-1.027034812087778</v>
+        <v>0.2791380382320399</v>
       </c>
       <c r="C86">
-        <v>0.5052504894471023</v>
+        <v>1.325660801933047</v>
       </c>
       <c r="D86">
-        <v>-2.017947229048761</v>
+        <v>-2.32078769514311</v>
       </c>
       <c r="E86">
-        <v>-0.03612239512679549</v>
+        <v>2.87906377160719</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -2658,16 +2658,16 @@
         <v>-6</v>
       </c>
       <c r="B87">
-        <v>-0.2396140393469141</v>
+        <v>1.429802828950119</v>
       </c>
       <c r="C87">
-        <v>0.3901038375615092</v>
+        <v>1.487128857255037</v>
       </c>
       <c r="D87">
-        <v>-1.00469924023104</v>
+        <v>-1.486805958099178</v>
       </c>
       <c r="E87">
-        <v>0.5254711615372113</v>
+        <v>4.346411615999416</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -2685,16 +2685,16 @@
         <v>-5</v>
       </c>
       <c r="B88">
-        <v>-0.1374756589886411</v>
+        <v>0.06434876664742045</v>
       </c>
       <c r="C88">
-        <v>0.3291012112566799</v>
+        <v>1.036108231194856</v>
       </c>
       <c r="D88">
-        <v>-0.7829203895491936</v>
+        <v>-1.96770269728216</v>
       </c>
       <c r="E88">
-        <v>0.5079690715719116</v>
+        <v>2.096400230577001</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -2712,16 +2712,16 @@
         <v>-4</v>
       </c>
       <c r="B89">
-        <v>-0.2274283973846063</v>
+        <v>-0.5156539197360082</v>
       </c>
       <c r="C89">
-        <v>0.3082971711101374</v>
+        <v>0.964930773974542</v>
       </c>
       <c r="D89">
-        <v>-0.8320715215466851</v>
+        <v>-2.408109681413009</v>
       </c>
       <c r="E89">
-        <v>0.3772147267774725</v>
+        <v>1.376801841940993</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -2739,16 +2739,16 @@
         <v>-3</v>
       </c>
       <c r="B90">
-        <v>-0.005171522130939382</v>
+        <v>0.4744914050642254</v>
       </c>
       <c r="C90">
-        <v>0.2381679336549978</v>
+        <v>0.9747079264837855</v>
       </c>
       <c r="D90">
-        <v>-0.4722747490656395</v>
+        <v>-1.437139647833616</v>
       </c>
       <c r="E90">
-        <v>0.4619317048037608</v>
+        <v>2.386122457962067</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -2766,16 +2766,16 @@
         <v>-2</v>
       </c>
       <c r="B91">
-        <v>0.0273322460325492</v>
+        <v>0.3382643633742594</v>
       </c>
       <c r="C91">
-        <v>0.1913663263580518</v>
+        <v>0.5722787029653266</v>
       </c>
       <c r="D91">
-        <v>-0.3479820424894698</v>
+        <v>-0.7841085134393334</v>
       </c>
       <c r="E91">
-        <v>0.4026465345545682</v>
+        <v>1.460637240187852</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -2793,16 +2793,16 @@
         <v>0</v>
       </c>
       <c r="B92">
-        <v>-0.4270658898722434</v>
+        <v>-0.4174192935023605</v>
       </c>
       <c r="C92">
-        <v>0.1764261195742165</v>
+        <v>0.4864927712954963</v>
       </c>
       <c r="D92">
-        <v>-0.7730789257331458</v>
+        <v>-1.371545820382789</v>
       </c>
       <c r="E92">
-        <v>-0.08105285401134088</v>
+        <v>0.5367072333780679</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -2820,16 +2820,16 @@
         <v>1</v>
       </c>
       <c r="B93">
-        <v>-0.9306712073073651</v>
+        <v>-0.01092859822373715</v>
       </c>
       <c r="C93">
-        <v>0.3348041275865692</v>
+        <v>0.8641535711749961</v>
       </c>
       <c r="D93">
-        <v>-1.587300695529244</v>
+        <v>-1.705736608137021</v>
       </c>
       <c r="E93">
-        <v>-0.2740417190854865</v>
+        <v>1.683879411689546</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -2847,16 +2847,16 @@
         <v>2</v>
       </c>
       <c r="B94">
-        <v>-0.9805703659876704</v>
+        <v>0.5085789287580289</v>
       </c>
       <c r="C94">
-        <v>0.4152642850514802</v>
+        <v>0.9111264662833258</v>
       </c>
       <c r="D94">
-        <v>-1.795001110721166</v>
+        <v>-1.278353955175236</v>
       </c>
       <c r="E94">
-        <v>-0.1661396212541751</v>
+        <v>2.295511812691294</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -2874,16 +2874,16 @@
         <v>3</v>
       </c>
       <c r="B95">
-        <v>-0.5817345904300066</v>
+        <v>-0.2010402386770832</v>
       </c>
       <c r="C95">
-        <v>0.5259962844409212</v>
+        <v>1.223826378754052</v>
       </c>
       <c r="D95">
-        <v>-1.613336779891505</v>
+        <v>-2.601251056107712</v>
       </c>
       <c r="E95">
-        <v>0.449867599031492</v>
+        <v>2.199170578753545</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -2901,16 +2901,16 @@
         <v>-6</v>
       </c>
       <c r="B96">
-        <v>-0.2396140393470111</v>
+        <v>1.42980282895038</v>
       </c>
       <c r="C96">
-        <v>0.4193215335856097</v>
+        <v>1.519443390082081</v>
       </c>
       <c r="D96">
-        <v>-1.279980684657184</v>
+        <v>-2.236719079149894</v>
       </c>
       <c r="E96">
-        <v>0.8007526059631617</v>
+        <v>5.096324737050654</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -2928,16 +2928,16 @@
         <v>-5</v>
       </c>
       <c r="B97">
-        <v>-0.1374756589886744</v>
+        <v>0.06434876664754138</v>
       </c>
       <c r="C97">
-        <v>0.3559427733407662</v>
+        <v>1.070850645417137</v>
       </c>
       <c r="D97">
-        <v>-1.02059507777075</v>
+        <v>-2.519687846597491</v>
       </c>
       <c r="E97">
-        <v>0.7456437597934009</v>
+        <v>2.648385379892574</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -2955,16 +2955,16 @@
         <v>-4</v>
       </c>
       <c r="B98">
-        <v>-0.2341110531532761</v>
+        <v>-0.6528919001251016</v>
       </c>
       <c r="C98">
-        <v>0.3369925540207236</v>
+        <v>0.9687902518401488</v>
       </c>
       <c r="D98">
-        <v>-1.070213625618634</v>
+        <v>-2.990649730335546</v>
       </c>
       <c r="E98">
-        <v>0.6019915193120821</v>
+        <v>1.684865930085343</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -2982,16 +2982,16 @@
         <v>-3</v>
       </c>
       <c r="B99">
-        <v>-0.01177717135546133</v>
+        <v>0.3373392811970612</v>
       </c>
       <c r="C99">
-        <v>0.2329201676140316</v>
+        <v>1.098484750210111</v>
       </c>
       <c r="D99">
-        <v>-0.5896687271112548</v>
+        <v>-2.313380336690023</v>
       </c>
       <c r="E99">
-        <v>0.5661143844003322</v>
+        <v>2.988058899084145</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -3009,16 +3009,16 @@
         <v>-2</v>
       </c>
       <c r="B100">
-        <v>0.02733224603251</v>
+        <v>0.3382643633743995</v>
       </c>
       <c r="C100">
-        <v>0.1958508332758548</v>
+        <v>0.6063546019064926</v>
       </c>
       <c r="D100">
-        <v>-0.4585876461659276</v>
+        <v>-1.124911195833158</v>
       </c>
       <c r="E100">
-        <v>0.5132521382309476</v>
+        <v>1.801439922581957</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -3054,16 +3054,16 @@
         <v>0</v>
       </c>
       <c r="B102">
-        <v>-0.4270658898722482</v>
+        <v>-0.4174192935023275</v>
       </c>
       <c r="C102">
-        <v>0.1736762536631807</v>
+        <v>0.5192574761533386</v>
       </c>
       <c r="D102">
-        <v>-0.8579690677952881</v>
+        <v>-1.67042346903678</v>
       </c>
       <c r="E102">
-        <v>0.003837288050791643</v>
+        <v>0.8355848820321252</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -3081,16 +3081,16 @@
         <v>1</v>
       </c>
       <c r="B103">
-        <v>-0.9306712073074095</v>
+        <v>-0.01092859822361969</v>
       </c>
       <c r="C103">
-        <v>0.3570623480578063</v>
+        <v>0.888182856904579</v>
       </c>
       <c r="D103">
-        <v>-1.816568370849171</v>
+        <v>-2.154175213725241</v>
       </c>
       <c r="E103">
-        <v>-0.04477404376564786</v>
+        <v>2.132318017278001</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -3108,16 +3108,16 @@
         <v>2</v>
       </c>
       <c r="B104">
-        <v>-0.7637652278853471</v>
+        <v>1.614936260770854</v>
       </c>
       <c r="C104">
-        <v>0.4737393609137441</v>
+        <v>1.404904233172632</v>
       </c>
       <c r="D104">
-        <v>-1.939146385754248</v>
+        <v>-1.775194745973666</v>
       </c>
       <c r="E104">
-        <v>0.4116159299835536</v>
+        <v>5.005067267515375</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -3135,16 +3135,16 @@
         <v>3</v>
       </c>
       <c r="B105">
-        <v>-0.1119901245415251</v>
+        <v>2.196067314017121</v>
       </c>
       <c r="C105">
-        <v>0.6374316058831672</v>
+        <v>2.551408866127369</v>
       </c>
       <c r="D105">
-        <v>-1.693503422360164</v>
+        <v>-3.960658606302904</v>
       </c>
       <c r="E105">
-        <v>1.469523173277114</v>
+        <v>8.352793234337147</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -3162,16 +3162,16 @@
         <v>-6</v>
       </c>
       <c r="B106">
-        <v>-0.2396140393470727</v>
+        <v>1.429802828950454</v>
       </c>
       <c r="C106">
-        <v>0.3902894294720077</v>
+        <v>1.487835992067116</v>
       </c>
       <c r="D106">
-        <v>-1.004567264658893</v>
+        <v>-1.486302130403515</v>
       </c>
       <c r="E106">
-        <v>0.5253391859647478</v>
+        <v>4.345907788304423</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -3189,16 +3189,16 @@
         <v>-5</v>
       </c>
       <c r="B107">
-        <v>-0.1374756589886941</v>
+        <v>0.06434876664764005</v>
       </c>
       <c r="C107">
-        <v>0.3292577292975756</v>
+        <v>1.036601065096437</v>
       </c>
       <c r="D107">
-        <v>-0.7828089500433807</v>
+        <v>-1.967351987277235</v>
       </c>
       <c r="E107">
-        <v>0.5078576320659925</v>
+        <v>2.096049520572515</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -3216,16 +3216,16 @@
         <v>-4</v>
       </c>
       <c r="B108">
-        <v>-0.234111053153303</v>
+        <v>-0.6528919001250189</v>
       </c>
       <c r="C108">
-        <v>0.3076774121306279</v>
+        <v>0.9694162531059983</v>
       </c>
       <c r="D108">
-        <v>-0.8371476997858207</v>
+        <v>-2.55291284224054</v>
       </c>
       <c r="E108">
-        <v>0.3689255934792146</v>
+        <v>1.247129041990503</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -3243,16 +3243,16 @@
         <v>-3</v>
       </c>
       <c r="B109">
-        <v>-0.01177717135549509</v>
+        <v>0.3373392811971339</v>
       </c>
       <c r="C109">
-        <v>0.2383348518980478</v>
+        <v>0.9795910824468531</v>
       </c>
       <c r="D109">
-        <v>-0.4789048973363564</v>
+        <v>-1.582623959975304</v>
       </c>
       <c r="E109">
-        <v>0.4553505546253662</v>
+        <v>2.257302522369572</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -3270,16 +3270,16 @@
         <v>-2</v>
       </c>
       <c r="B110">
-        <v>0.02733224603247397</v>
+        <v>0.338264363374428</v>
       </c>
       <c r="C110">
-        <v>0.191457331665123</v>
+        <v>0.5725508524653956</v>
       </c>
       <c r="D110">
-        <v>-0.347917228607307</v>
+        <v>-0.7839146867754532</v>
       </c>
       <c r="E110">
-        <v>0.402581720672255</v>
+        <v>1.460443413524309</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -3315,16 +3315,16 @@
         <v>0</v>
       </c>
       <c r="B112">
-        <v>-0.427065889872247</v>
+        <v>-0.4174192935022435</v>
       </c>
       <c r="C112">
-        <v>0.1765100323497457</v>
+        <v>0.4867241505059875</v>
       </c>
       <c r="D112">
-        <v>-0.7730191961877484</v>
+        <v>-1.371381098899831</v>
       </c>
       <c r="E112">
-        <v>-0.08111258355674567</v>
+        <v>0.5365425118953445</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -3342,16 +3342,16 @@
         <v>1</v>
       </c>
       <c r="B113">
-        <v>-0.9306712073074427</v>
+        <v>-0.01092859822350898</v>
       </c>
       <c r="C113">
-        <v>0.3349633712489801</v>
+        <v>0.8645647173946196</v>
       </c>
       <c r="D113">
-        <v>-1.587187351095563</v>
+        <v>-1.705444306621013</v>
       </c>
       <c r="E113">
-        <v>-0.2741550635193225</v>
+        <v>1.683587110173995</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -3369,16 +3369,16 @@
         <v>2</v>
       </c>
       <c r="B114">
-        <v>-0.7637652278853779</v>
+        <v>1.614936260770988</v>
       </c>
       <c r="C114">
-        <v>0.4472254564838417</v>
+        <v>1.308075067069344</v>
       </c>
       <c r="D114">
-        <v>-1.640311015563193</v>
+        <v>-0.9488437597597419</v>
       </c>
       <c r="E114">
-        <v>0.1127805597924368</v>
+        <v>4.178716281301718</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3396,16 @@
         <v>3</v>
       </c>
       <c r="B115">
-        <v>-0.1119901245415127</v>
+        <v>2.196067314017263</v>
       </c>
       <c r="C115">
-        <v>0.6480804291738572</v>
+        <v>2.182958749818778</v>
       </c>
       <c r="D115">
-        <v>-1.382204424807534</v>
+        <v>-2.082453215364123</v>
       </c>
       <c r="E115">
-        <v>1.158224175724508</v>
+        <v>6.474587843398649</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>BEN_per_trab</t>
+          <t>SAL_per_trabBC</t>
         </is>
       </c>
     </row>
@@ -3423,16 +3423,16 @@
         <v>-6</v>
       </c>
       <c r="B116">
-        <v>21993.15862978786</v>
+        <v>0.5356277636574932</v>
       </c>
       <c r="C116">
-        <v>31236.07642555607</v>
+        <v>2.312568156436035</v>
       </c>
       <c r="D116">
-        <v>-39268.0137635873</v>
+        <v>-3.999850279696194</v>
       </c>
       <c r="E116">
-        <v>83254.33102316302</v>
+        <v>5.071105807011181</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -3450,16 +3450,16 @@
         <v>-5</v>
       </c>
       <c r="B117">
-        <v>30168.3793438313</v>
+        <v>1.009668788106243</v>
       </c>
       <c r="C117">
-        <v>25089.41142851192</v>
+        <v>1.785865771652403</v>
       </c>
       <c r="D117">
-        <v>-19037.76094825961</v>
+        <v>-2.492824737615017</v>
       </c>
       <c r="E117">
-        <v>79374.5196359222</v>
+        <v>4.512162313827504</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -3477,16 +3477,16 @@
         <v>-4</v>
       </c>
       <c r="B118">
-        <v>26154.86599041045</v>
+        <v>1.555858025447966</v>
       </c>
       <c r="C118">
-        <v>21590.03767568003</v>
+        <v>1.519693756788417</v>
       </c>
       <c r="D118">
-        <v>-16188.19278592091</v>
+        <v>-1.424610959802539</v>
       </c>
       <c r="E118">
-        <v>68497.92476674181</v>
+        <v>4.536327010698472</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -3504,16 +3504,16 @@
         <v>-3</v>
       </c>
       <c r="B119">
-        <v>12950.59531753615</v>
+        <v>1.630907139077417</v>
       </c>
       <c r="C119">
-        <v>14605.36842366296</v>
+        <v>1.268043794011701</v>
       </c>
       <c r="D119">
-        <v>-15693.91113970678</v>
+        <v>-0.8560183899043063</v>
       </c>
       <c r="E119">
-        <v>41595.10177477908</v>
+        <v>4.11783266805914</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -3531,16 +3531,16 @@
         <v>-2</v>
       </c>
       <c r="B120">
-        <v>738.0916443503138</v>
+        <v>0.6525292578893257</v>
       </c>
       <c r="C120">
-        <v>11770.08535705736</v>
+        <v>0.8117622698644276</v>
       </c>
       <c r="D120">
-        <v>-22345.76877140596</v>
+        <v>-0.9395232579020708</v>
       </c>
       <c r="E120">
-        <v>23821.9520601066</v>
+        <v>2.244581773680722</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -3558,16 +3558,16 @@
         <v>0</v>
       </c>
       <c r="B121">
-        <v>2909.032496429691</v>
+        <v>0.759866525300275</v>
       </c>
       <c r="C121">
-        <v>6980.752608970559</v>
+        <v>0.9145845625168406</v>
       </c>
       <c r="D121">
-        <v>-10781.83837952206</v>
+        <v>-1.033844155416738</v>
       </c>
       <c r="E121">
-        <v>16599.90337238144</v>
+        <v>2.553577206017287</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -3585,16 +3585,16 @@
         <v>1</v>
       </c>
       <c r="B122">
-        <v>14895.28134426423</v>
+        <v>1.375116774725562</v>
       </c>
       <c r="C122">
-        <v>14547.35048849747</v>
+        <v>1.316178512247172</v>
       </c>
       <c r="D122">
-        <v>-13635.43851956478</v>
+        <v>-1.206212007657542</v>
       </c>
       <c r="E122">
-        <v>43426.00120809324</v>
+        <v>3.956445557108665</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -3612,16 +3612,16 @@
         <v>2</v>
       </c>
       <c r="B123">
-        <v>23173.13237637545</v>
+        <v>0.8676534779135991</v>
       </c>
       <c r="C123">
-        <v>19749.00386525229</v>
+        <v>1.864628636997652</v>
       </c>
       <c r="D123">
-        <v>-15559.23317120035</v>
+        <v>-2.789312142137426</v>
       </c>
       <c r="E123">
-        <v>61905.49792395126</v>
+        <v>4.524619097964624</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -3639,16 +3639,16 @@
         <v>3</v>
       </c>
       <c r="B124">
-        <v>16476.85722963086</v>
+        <v>2.965409001800709</v>
       </c>
       <c r="C124">
-        <v>24825.68119235776</v>
+        <v>2.890078863589758</v>
       </c>
       <c r="D124">
-        <v>-32212.04705489391</v>
+        <v>-2.702700365221306</v>
       </c>
       <c r="E124">
-        <v>65165.76151415563</v>
+        <v>8.633518368822724</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -3666,16 +3666,16 @@
         <v>-6</v>
       </c>
       <c r="B125">
-        <v>31372.59538239114</v>
+        <v>1.027673705898208</v>
       </c>
       <c r="C125">
-        <v>34142.42583405905</v>
+        <v>2.676454260038419</v>
       </c>
       <c r="D125">
-        <v>-35588.76301798993</v>
+        <v>-4.221481385727353</v>
       </c>
       <c r="E125">
-        <v>98333.95378277221</v>
+        <v>6.27682879752377</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -3693,16 +3693,16 @@
         <v>-5</v>
       </c>
       <c r="B126">
-        <v>35483.84824249818</v>
+        <v>0.7864932810125278</v>
       </c>
       <c r="C126">
-        <v>30931.06630106861</v>
+        <v>2.00153873967635</v>
       </c>
       <c r="D126">
-        <v>-25179.27588225796</v>
+        <v>-3.138994041273006</v>
       </c>
       <c r="E126">
-        <v>96146.97236725432</v>
+        <v>4.711980603298062</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -3720,16 +3720,16 @@
         <v>-4</v>
       </c>
       <c r="B127">
-        <v>33749.85492947603</v>
+        <v>1.044302980012942</v>
       </c>
       <c r="C127">
-        <v>27375.53235961768</v>
+        <v>1.829322109150125</v>
       </c>
       <c r="D127">
-        <v>-19940.02764193056</v>
+        <v>-2.543427102596708</v>
       </c>
       <c r="E127">
-        <v>87439.73750088262</v>
+        <v>4.632033062622593</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -3747,16 +3747,16 @@
         <v>-3</v>
       </c>
       <c r="B128">
-        <v>27717.33498974637</v>
+        <v>1.847583159703892</v>
       </c>
       <c r="C128">
-        <v>21223.32534256577</v>
+        <v>1.934414961694097</v>
       </c>
       <c r="D128">
-        <v>-13906.61702873512</v>
+        <v>-1.946258676901034</v>
       </c>
       <c r="E128">
-        <v>69341.28700822787</v>
+        <v>5.641424996308819</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -3774,16 +3774,16 @@
         <v>-2</v>
       </c>
       <c r="B129">
-        <v>13884.2919210398</v>
+        <v>0.9780623539341484</v>
       </c>
       <c r="C129">
-        <v>13496.26715589352</v>
+        <v>1.096903041435179</v>
       </c>
       <c r="D129">
-        <v>-12585.07456409016</v>
+        <v>-1.173222004232459</v>
       </c>
       <c r="E129">
-        <v>40353.65840616975</v>
+        <v>3.129346712100756</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -3801,16 +3801,16 @@
         <v>0</v>
       </c>
       <c r="B130">
-        <v>8345.193203094277</v>
+        <v>0.9186459052249594</v>
       </c>
       <c r="C130">
-        <v>10017.47537541782</v>
+        <v>1.054501156559078</v>
       </c>
       <c r="D130">
-        <v>-11301.44122588642</v>
+        <v>-1.149478403014731</v>
       </c>
       <c r="E130">
-        <v>27991.82763207498</v>
+        <v>2.98677021346465</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -3828,16 +3828,16 @@
         <v>1</v>
       </c>
       <c r="B131">
-        <v>22797.6765142264</v>
+        <v>1.812065975019387</v>
       </c>
       <c r="C131">
-        <v>21970.20537635463</v>
+        <v>1.731913727717223</v>
       </c>
       <c r="D131">
-        <v>-20291.08359573916</v>
+        <v>-1.58462340534483</v>
       </c>
       <c r="E131">
-        <v>65886.43662419196</v>
+        <v>5.208755355383605</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -3855,16 +3855,16 @@
         <v>2</v>
       </c>
       <c r="B132">
-        <v>28948.11209196046</v>
+        <v>0.7327874244528532</v>
       </c>
       <c r="C132">
-        <v>24120.34060980662</v>
+        <v>2.319594680672433</v>
       </c>
       <c r="D132">
-        <v>-18357.57087744766</v>
+        <v>-3.816482260576059</v>
       </c>
       <c r="E132">
-        <v>76253.79506136858</v>
+        <v>5.282057109481766</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -3882,16 +3882,16 @@
         <v>3</v>
       </c>
       <c r="B133">
-        <v>23339.7223060107</v>
+        <v>2.130356509649689</v>
       </c>
       <c r="C133">
-        <v>22495.79111430016</v>
+        <v>3.346256146149365</v>
       </c>
       <c r="D133">
-        <v>-20779.83553167788</v>
+        <v>-4.432437314142812</v>
       </c>
       <c r="E133">
-        <v>67459.28014369927</v>
+        <v>8.69315033344219</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -3909,16 +3909,16 @@
         <v>-6</v>
       </c>
       <c r="B134">
-        <v>32669.25177970178</v>
+        <v>1.027673705898563</v>
       </c>
       <c r="C134">
-        <v>33495.68248179312</v>
+        <v>2.671372526248502</v>
       </c>
       <c r="D134">
-        <v>-41469.43711627283</v>
+        <v>-6.189979358802844</v>
       </c>
       <c r="E134">
-        <v>106807.9406756764</v>
+        <v>8.24532677059997</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -3936,16 +3936,16 @@
         <v>-5</v>
       </c>
       <c r="B135">
-        <v>36780.50463980465</v>
+        <v>0.7864932810125855</v>
       </c>
       <c r="C135">
-        <v>34867.15015638061</v>
+        <v>2.088240287643886</v>
       </c>
       <c r="D135">
-        <v>-40393.76400028762</v>
+        <v>-4.855622808693642</v>
       </c>
       <c r="E135">
-        <v>113954.7732798969</v>
+        <v>6.428609370718814</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -3963,16 +3963,16 @@
         <v>-4</v>
       </c>
       <c r="B136">
-        <v>35554.78942850992</v>
+        <v>0.9295208705827386</v>
       </c>
       <c r="C136">
-        <v>30725.99127173322</v>
+        <v>1.915389329143507</v>
       </c>
       <c r="D136">
-        <v>-32453.51907971884</v>
+        <v>-4.245577520132306</v>
       </c>
       <c r="E136">
-        <v>103563.0979367387</v>
+        <v>6.104619261297783</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -3990,16 +3990,16 @@
         <v>-3</v>
       </c>
       <c r="B137">
-        <v>29563.82425873993</v>
+        <v>1.731964394150766</v>
       </c>
       <c r="C137">
-        <v>23009.37478112306</v>
+        <v>2.011090723651889</v>
       </c>
       <c r="D137">
-        <v>-21364.67613876102</v>
+        <v>-3.701704995772561</v>
       </c>
       <c r="E137">
-        <v>80492.32465624087</v>
+        <v>7.165633784074092</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -4017,16 +4017,16 @@
         <v>-2</v>
       </c>
       <c r="B138">
-        <v>14582.49151959152</v>
+        <v>0.9780623539342782</v>
       </c>
       <c r="C138">
-        <v>15436.38204902415</v>
+        <v>1.141862355889659</v>
       </c>
       <c r="D138">
-        <v>-19584.0947869892</v>
+        <v>-2.107080677025944</v>
       </c>
       <c r="E138">
-        <v>48749.07782617225</v>
+        <v>4.0632053848945</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -4062,16 +4062,16 @@
         <v>0</v>
       </c>
       <c r="B140">
-        <v>8943.650001850001</v>
+        <v>0.9186459052249102</v>
       </c>
       <c r="C140">
-        <v>9688.83589934856</v>
+        <v>1.074684986177434</v>
       </c>
       <c r="D140">
-        <v>-12501.42999902478</v>
+        <v>-1.984993818496119</v>
       </c>
       <c r="E140">
-        <v>30388.73000272478</v>
+        <v>3.822285628945939</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -4089,16 +4089,16 @@
         <v>1</v>
       </c>
       <c r="B141">
-        <v>24094.33291153292</v>
+        <v>1.812065975019463</v>
       </c>
       <c r="C141">
-        <v>24081.91180866114</v>
+        <v>1.744859986371343</v>
       </c>
       <c r="D141">
-        <v>-29208.0999788283</v>
+        <v>-2.9022873786829</v>
       </c>
       <c r="E141">
-        <v>77396.76580189413</v>
+        <v>6.526419328721826</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -4116,16 +4116,16 @@
         <v>2</v>
       </c>
       <c r="B142">
-        <v>29624.2478701592</v>
+        <v>2.183658952710718</v>
       </c>
       <c r="C142">
-        <v>25653.93410089469</v>
+        <v>2.502086042368495</v>
       </c>
       <c r="D142">
-        <v>-27157.66843496125</v>
+        <v>-4.576607095697256</v>
       </c>
       <c r="E142">
-        <v>86406.16417527964</v>
+        <v>8.943925001118691</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -4143,16 +4143,16 @@
         <v>3</v>
       </c>
       <c r="B143">
-        <v>23291.91736191332</v>
+        <v>5.273911487541372</v>
       </c>
       <c r="C143">
-        <v>24701.60376608481</v>
+        <v>3.677846799197312</v>
       </c>
       <c r="D143">
-        <v>-31382.12959446204</v>
+        <v>-4.663086052448819</v>
       </c>
       <c r="E143">
-        <v>77965.96431828869</v>
+        <v>15.21090902753156</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -4170,16 +4170,16 @@
         <v>-6</v>
       </c>
       <c r="B144">
-        <v>32669.2517796936</v>
+        <v>1.027673705898764</v>
       </c>
       <c r="C144">
-        <v>34485.92853515077</v>
+        <v>2.677727286842558</v>
       </c>
       <c r="D144">
-        <v>-34921.92612262403</v>
+        <v>-4.220575336732804</v>
       </c>
       <c r="E144">
-        <v>100260.4296820112</v>
+        <v>6.275922748530331</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -4197,16 +4197,16 @@
         <v>-5</v>
       </c>
       <c r="B145">
-        <v>36780.50463980079</v>
+        <v>0.7864932810126463</v>
       </c>
       <c r="C145">
-        <v>31265.48938917051</v>
+        <v>2.002478618770904</v>
       </c>
       <c r="D145">
-        <v>-24498.72852199262</v>
+        <v>-3.138292691589838</v>
       </c>
       <c r="E145">
-        <v>98059.73780159419</v>
+        <v>4.71127925361513</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -4224,16 +4224,16 @@
         <v>-4</v>
       </c>
       <c r="B146">
-        <v>35554.78942850637</v>
+        <v>0.9295208705827792</v>
       </c>
       <c r="C146">
-        <v>27734.53425636256</v>
+        <v>1.837580018761685</v>
       </c>
       <c r="D146">
-        <v>-18803.89884195661</v>
+        <v>-2.67206978490056</v>
       </c>
       <c r="E146">
-        <v>89913.47769896936</v>
+        <v>4.531111526066118</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -4251,16 +4251,16 @@
         <v>-3</v>
       </c>
       <c r="B147">
-        <v>29563.82425873681</v>
+        <v>1.731964394150786</v>
       </c>
       <c r="C147">
-        <v>21640.90071839538</v>
+        <v>1.940175009911364</v>
       </c>
       <c r="D147">
-        <v>-12851.5617423251</v>
+        <v>-2.07070874898013</v>
       </c>
       <c r="E147">
-        <v>71979.21025979874</v>
+        <v>5.534637537281702</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -4278,16 +4278,16 @@
         <v>-2</v>
       </c>
       <c r="B148">
-        <v>14582.49151958856</v>
+        <v>0.9780623539343295</v>
       </c>
       <c r="C148">
-        <v>13677.27254702016</v>
+        <v>1.097424963964647</v>
       </c>
       <c r="D148">
-        <v>-12224.47007930936</v>
+        <v>-1.172851051171545</v>
       </c>
       <c r="E148">
-        <v>41389.45311848649</v>
+        <v>3.128975759040204</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -4314,7 +4314,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -4323,16 +4323,16 @@
         <v>0</v>
       </c>
       <c r="B150">
-        <v>8943.650001849202</v>
+        <v>0.9186459052249178</v>
       </c>
       <c r="C150">
-        <v>10064.35110475866</v>
+        <v>1.055002783464815</v>
       </c>
       <c r="D150">
-        <v>-10782.11569124367</v>
+        <v>-1.149121553955628</v>
       </c>
       <c r="E150">
-        <v>28669.41569494207</v>
+        <v>2.986413364405463</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -4350,16 +4350,16 @@
         <v>1</v>
       </c>
       <c r="B151">
-        <v>24094.33291152955</v>
+        <v>1.812065975019542</v>
       </c>
       <c r="C151">
-        <v>22172.9887615976</v>
+        <v>1.732737392322475</v>
       </c>
       <c r="D151">
-        <v>-19363.92649081312</v>
+        <v>-1.584036908598357</v>
       </c>
       <c r="E151">
-        <v>67552.59231387221</v>
+        <v>5.208168858637443</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -4377,16 +4377,16 @@
         <v>2</v>
       </c>
       <c r="B152">
-        <v>29624.24787015601</v>
+        <v>2.183658952710814</v>
       </c>
       <c r="C152">
-        <v>24121.22067085624</v>
+        <v>2.465348879426352</v>
       </c>
       <c r="D152">
-        <v>-17652.47590786528</v>
+        <v>-2.648336060291015</v>
       </c>
       <c r="E152">
-        <v>76900.97164817731</v>
+        <v>7.015653965712643</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -4404,16 +4404,16 @@
         <v>3</v>
       </c>
       <c r="B153">
-        <v>23291.91736191409</v>
+        <v>5.273911487541341</v>
       </c>
       <c r="C153">
-        <v>22311.82769007712</v>
+        <v>3.877337659565929</v>
       </c>
       <c r="D153">
-        <v>-20438.46133990056</v>
+        <v>-2.325530681108704</v>
       </c>
       <c r="E153">
-        <v>67022.29606372875</v>
+        <v>12.87335365619139</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>SAL_per_trabWC</t>
         </is>
       </c>
     </row>
@@ -4431,16 +4431,16 @@
         <v>-6</v>
       </c>
       <c r="B154">
-        <v>-0.06764136016510136</v>
+        <v>13.36062102941945</v>
       </c>
       <c r="C154">
-        <v>0.1708758893267174</v>
+        <v>22.83163575556919</v>
       </c>
       <c r="D154">
-        <v>-0.4027682804346609</v>
+        <v>-31.41759187900431</v>
       </c>
       <c r="E154">
-        <v>0.2674855601044582</v>
+        <v>58.13883393784322</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -4458,16 +4458,16 @@
         <v>-5</v>
       </c>
       <c r="B155">
-        <v>-0.1345186448927692</v>
+        <v>11.85630836121859</v>
       </c>
       <c r="C155">
-        <v>0.1368446724786435</v>
+        <v>19.4524888302605</v>
       </c>
       <c r="D155">
-        <v>-0.4029025217741861</v>
+        <v>-26.29460188303187</v>
       </c>
       <c r="E155">
-        <v>0.1338652319886476</v>
+        <v>50.00721860546904</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -4485,16 +4485,16 @@
         <v>-4</v>
       </c>
       <c r="B156">
-        <v>-0.09221696391783246</v>
+        <v>-4.782447022613535</v>
       </c>
       <c r="C156">
-        <v>0.1056269061248453</v>
+        <v>8.20402808365496</v>
       </c>
       <c r="D156">
-        <v>-0.2993756209214484</v>
+        <v>-20.87247754734198</v>
       </c>
       <c r="E156">
-        <v>0.1149416930857834</v>
+        <v>11.30758350211491</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -4512,16 +4512,16 @@
         <v>-3</v>
       </c>
       <c r="B157">
-        <v>0.01549711826860004</v>
+        <v>4.142916156036714</v>
       </c>
       <c r="C157">
-        <v>0.07548091494042274</v>
+        <v>6.604503440750292</v>
       </c>
       <c r="D157">
-        <v>-0.1325383164716792</v>
+        <v>-8.810069972090185</v>
       </c>
       <c r="E157">
-        <v>0.1635325530088793</v>
+        <v>17.09590228416361</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -4539,16 +4539,16 @@
         <v>-2</v>
       </c>
       <c r="B158">
-        <v>0.05651593746970406</v>
+        <v>0.7754562735746768</v>
       </c>
       <c r="C158">
-        <v>0.05106326974528291</v>
+        <v>4.326726750244233</v>
       </c>
       <c r="D158">
-        <v>-0.04363087900661419</v>
+        <v>-7.710273513514715</v>
       </c>
       <c r="E158">
-        <v>0.1566627539460223</v>
+        <v>9.26118606066407</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -4566,16 +4566,16 @@
         <v>0</v>
       </c>
       <c r="B159">
-        <v>-0.01707493438337432</v>
+        <v>-5.172167401369973</v>
       </c>
       <c r="C159">
-        <v>0.05093319902170303</v>
+        <v>4.412092143911654</v>
       </c>
       <c r="D159">
-        <v>-0.1169666522546037</v>
+        <v>-13.82531882279052</v>
       </c>
       <c r="E159">
-        <v>0.08281678348785511</v>
+        <v>3.48098402005058</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -4593,16 +4593,16 @@
         <v>1</v>
       </c>
       <c r="B160">
-        <v>-0.1011110693473659</v>
+        <v>-0.9192430485576386</v>
       </c>
       <c r="C160">
-        <v>0.112415514141536</v>
+        <v>7.264246786199413</v>
       </c>
       <c r="D160">
-        <v>-0.321583748045411</v>
+        <v>-15.166141198745</v>
       </c>
       <c r="E160">
-        <v>0.1193616093506792</v>
+        <v>13.32765510162973</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -4620,16 +4620,16 @@
         <v>2</v>
       </c>
       <c r="B161">
-        <v>0.1196269194040044</v>
+        <v>13.29126895376966</v>
       </c>
       <c r="C161">
-        <v>0.1552128053373528</v>
+        <v>13.68410715943827</v>
       </c>
       <c r="D161">
-        <v>-0.1847810906672721</v>
+        <v>-13.54648679912457</v>
       </c>
       <c r="E161">
-        <v>0.4240349294752808</v>
+        <v>40.12902470666388</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -4647,16 +4647,16 @@
         <v>3</v>
       </c>
       <c r="B162">
-        <v>0.314868032280044</v>
+        <v>5.68221523242841</v>
       </c>
       <c r="C162">
-        <v>0.2245595015992964</v>
+        <v>14.24451478804322</v>
       </c>
       <c r="D162">
-        <v>-0.1255447988382707</v>
+        <v>-22.25463181544919</v>
       </c>
       <c r="E162">
-        <v>0.7552808633983588</v>
+        <v>33.61906228030602</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -4674,16 +4674,16 @@
         <v>-6</v>
       </c>
       <c r="B163">
-        <v>-0.007903234433813021</v>
+        <v>7.070257531656433</v>
       </c>
       <c r="C163">
-        <v>0.1552138227316048</v>
+        <v>20.11772950749154</v>
       </c>
       <c r="D163">
-        <v>-0.3123139766785079</v>
+        <v>-32.38544262143154</v>
       </c>
       <c r="E163">
-        <v>0.2965075078108819</v>
+        <v>46.5259576847444</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -4701,16 +4701,16 @@
         <v>-5</v>
       </c>
       <c r="B164">
-        <v>-0.2083979187860191</v>
+        <v>10.54772154248743</v>
       </c>
       <c r="C164">
-        <v>0.1555334380177582</v>
+        <v>18.23063269163518</v>
       </c>
       <c r="D164">
-        <v>-0.5134355016353613</v>
+        <v>-25.20692844494696</v>
       </c>
       <c r="E164">
-        <v>0.09663966406332308</v>
+        <v>46.30237152992183</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -4728,16 +4728,16 @@
         <v>-4</v>
       </c>
       <c r="B165">
-        <v>-0.1809188866075635</v>
+        <v>4.202207402252505</v>
       </c>
       <c r="C165">
-        <v>0.1316073001809019</v>
+        <v>8.624289663671373</v>
       </c>
       <c r="D165">
-        <v>-0.4390316965868973</v>
+        <v>-12.71209631559396</v>
       </c>
       <c r="E165">
-        <v>0.07719392337177025</v>
+        <v>21.11651112009897</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -4755,16 +4755,16 @@
         <v>-3</v>
       </c>
       <c r="B166">
-        <v>0.01401533702313681</v>
+        <v>12.11758234294111</v>
       </c>
       <c r="C166">
-        <v>0.07656455883453897</v>
+        <v>8.822621328690522</v>
       </c>
       <c r="D166">
-        <v>-0.1361457360970203</v>
+        <v>-5.185697412332644</v>
       </c>
       <c r="E166">
-        <v>0.1641764101432939</v>
+        <v>29.42086209821487</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -4782,16 +4782,16 @@
         <v>-2</v>
       </c>
       <c r="B167">
-        <v>0.07124079405592069</v>
+        <v>5.143845371704277</v>
       </c>
       <c r="C167">
-        <v>0.05706209112347455</v>
+        <v>5.835919973219337</v>
       </c>
       <c r="D167">
-        <v>-0.04067136175102688</v>
+        <v>-6.301795573761954</v>
       </c>
       <c r="E167">
-        <v>0.1831529498628683</v>
+        <v>16.58948631717051</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -4809,16 +4809,16 @@
         <v>0</v>
       </c>
       <c r="B168">
-        <v>0.0003757727289534218</v>
+        <v>-7.442233641957719</v>
       </c>
       <c r="C168">
-        <v>0.05319046933125283</v>
+        <v>5.017046939053653</v>
       </c>
       <c r="D168">
-        <v>-0.1039432238946209</v>
+        <v>-17.28186786149302</v>
       </c>
       <c r="E168">
-        <v>0.1046947693525278</v>
+        <v>2.39740057757758</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -4836,16 +4836,16 @@
         <v>1</v>
       </c>
       <c r="B169">
-        <v>-0.1328920698704333</v>
+        <v>-4.758708743507363</v>
       </c>
       <c r="C169">
-        <v>0.1286006680600597</v>
+        <v>7.581334911883271</v>
       </c>
       <c r="D169">
-        <v>-0.3851081684650796</v>
+        <v>-19.62752765928082</v>
       </c>
       <c r="E169">
-        <v>0.1193240287242131</v>
+        <v>10.11011017226609</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -4863,16 +4863,16 @@
         <v>2</v>
       </c>
       <c r="B170">
-        <v>0.0169573034397817</v>
+        <v>15.18666627641987</v>
       </c>
       <c r="C170">
-        <v>0.1798105415232655</v>
+        <v>14.09462738943213</v>
       </c>
       <c r="D170">
-        <v>-0.3356933783436798</v>
+        <v>-12.45628378113245</v>
       </c>
       <c r="E170">
-        <v>0.3696079852232432</v>
+        <v>42.82961633397218</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -4890,16 +4890,16 @@
         <v>3</v>
       </c>
       <c r="B171">
-        <v>0.2388029709409597</v>
+        <v>8.885635042378828</v>
       </c>
       <c r="C171">
-        <v>0.2130151528698137</v>
+        <v>14.80379876425107</v>
       </c>
       <c r="D171">
-        <v>-0.1789697483521881</v>
+        <v>-20.14817043509498</v>
       </c>
       <c r="E171">
-        <v>0.6565756902341076</v>
+        <v>37.91944051985264</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -4917,16 +4917,16 @@
         <v>-6</v>
       </c>
       <c r="B172">
-        <v>-0.007903234433810387</v>
+        <v>6.718394248219848</v>
       </c>
       <c r="C172">
-        <v>0.1667792125170257</v>
+        <v>21.75776477177765</v>
       </c>
       <c r="D172">
-        <v>-0.4281969858031334</v>
+        <v>-46.35379836340586</v>
       </c>
       <c r="E172">
-        <v>0.4123905169355126</v>
+        <v>59.79058685984556</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -4944,16 +4944,16 @@
         <v>-5</v>
       </c>
       <c r="B173">
-        <v>-0.208397918786025</v>
+        <v>10.72174029209432</v>
       </c>
       <c r="C173">
-        <v>0.1819559732049962</v>
+        <v>20.84438061646383</v>
       </c>
       <c r="D173">
-        <v>-0.6669380294402646</v>
+        <v>-40.12249828437701</v>
       </c>
       <c r="E173">
-        <v>0.2501421918682145</v>
+        <v>61.56597886856564</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -4971,16 +4971,16 @@
         <v>-4</v>
       </c>
       <c r="B174">
-        <v>-0.1824179560157773</v>
+        <v>3.790621945760329</v>
       </c>
       <c r="C174">
-        <v>0.1358366990677859</v>
+        <v>9.884364057166724</v>
       </c>
       <c r="D174">
-        <v>-0.5247346929951978</v>
+        <v>-20.31961541491884</v>
       </c>
       <c r="E174">
-        <v>0.1598987809636432</v>
+        <v>27.9008593064395</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -4998,16 +4998,16 @@
         <v>-3</v>
       </c>
       <c r="B175">
-        <v>0.01191736165713834</v>
+        <v>11.69016268453194</v>
       </c>
       <c r="C175">
-        <v>0.07502417978593412</v>
+        <v>9.51247173054905</v>
       </c>
       <c r="D175">
-        <v>-0.1771481309168706</v>
+        <v>-11.51294375548206</v>
       </c>
       <c r="E175">
-        <v>0.2009828542311473</v>
+        <v>34.89326912454594</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -5025,16 +5025,16 @@
         <v>-2</v>
       </c>
       <c r="B176">
-        <v>0.07124079405592273</v>
+        <v>5.155354090495959</v>
       </c>
       <c r="C176">
-        <v>0.05489920211857583</v>
+        <v>5.97510015678008</v>
       </c>
       <c r="D176">
-        <v>-0.06710853172257278</v>
+        <v>-9.419289477933372</v>
       </c>
       <c r="E176">
-        <v>0.2095901198344182</v>
+        <v>19.72999765892529</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -5070,16 +5070,16 @@
         <v>0</v>
       </c>
       <c r="B178">
-        <v>0.0003757727289490642</v>
+        <v>-7.500960653574505</v>
       </c>
       <c r="C178">
-        <v>0.05440234026490986</v>
+        <v>5.17782692249389</v>
       </c>
       <c r="D178">
-        <v>-0.136721430982066</v>
+        <v>-20.13087142900042</v>
       </c>
       <c r="E178">
-        <v>0.1374729764399641</v>
+        <v>5.12895012185141</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -5097,16 +5097,16 @@
         <v>1</v>
       </c>
       <c r="B179">
-        <v>-0.1328920698704375</v>
+        <v>-4.729136308233579</v>
       </c>
       <c r="C179">
-        <v>0.1323325995173314</v>
+        <v>8.156179045242547</v>
       </c>
       <c r="D179">
-        <v>-0.466378263024849</v>
+        <v>-24.623932938515</v>
       </c>
       <c r="E179">
-        <v>0.2005941232839739</v>
+        <v>15.16566032204785</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -5124,16 +5124,16 @@
         <v>2</v>
       </c>
       <c r="B180">
-        <v>0.03952386133747812</v>
+        <v>17.31427645824628</v>
       </c>
       <c r="C180">
-        <v>0.1966964693571126</v>
+        <v>14.22787889510443</v>
       </c>
       <c r="D180">
-        <v>-0.4561631954578197</v>
+        <v>-17.39079261003069</v>
       </c>
       <c r="E180">
-        <v>0.535210918132776</v>
+        <v>52.01934552652325</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B181">
-        <v>0.2876971797193003</v>
+        <v>13.24801506946151</v>
       </c>
       <c r="C181">
-        <v>0.2278873696002075</v>
+        <v>16.12025456223805</v>
       </c>
       <c r="D181">
-        <v>-0.2865928412818538</v>
+        <v>-26.07299350147712</v>
       </c>
       <c r="E181">
-        <v>0.8619872007204544</v>
+        <v>52.56902364040015</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -5178,16 +5178,16 @@
         <v>-6</v>
       </c>
       <c r="B182">
-        <v>-0.007903234433819128</v>
+        <v>6.718394248219738</v>
       </c>
       <c r="C182">
-        <v>0.1552876213723346</v>
+        <v>20.11940566568994</v>
       </c>
       <c r="D182">
-        <v>-0.3122613795684872</v>
+        <v>-32.71491624688364</v>
       </c>
       <c r="E182">
-        <v>0.296454910700849</v>
+        <v>46.15170474332312</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -5205,16 +5205,16 @@
         <v>-5</v>
       </c>
       <c r="B183">
-        <v>-0.2083979187860222</v>
+        <v>10.72174029209446</v>
       </c>
       <c r="C183">
-        <v>0.1556074133811954</v>
+        <v>18.32889089259857</v>
       </c>
       <c r="D183">
-        <v>-0.5133828447406011</v>
+        <v>-25.20222573396293</v>
       </c>
       <c r="E183">
-        <v>0.09658700716855664</v>
+        <v>46.64570631815184</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -5232,16 +5232,16 @@
         <v>-4</v>
       </c>
       <c r="B184">
-        <v>-0.1824179560157758</v>
+        <v>3.790621945760635</v>
       </c>
       <c r="C184">
-        <v>0.1312928049989862</v>
+        <v>8.675085506686717</v>
       </c>
       <c r="D184">
-        <v>-0.4397471252430291</v>
+        <v>-13.21223321015073</v>
       </c>
       <c r="E184">
-        <v>0.07491121321147753</v>
+        <v>20.793477101672</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -5259,16 +5259,16 @@
         <v>-3</v>
       </c>
       <c r="B185">
-        <v>0.01191736165713973</v>
+        <v>11.69016268453198</v>
       </c>
       <c r="C185">
-        <v>0.07671589919630216</v>
+        <v>8.88795826749978</v>
       </c>
       <c r="D185">
-        <v>-0.1384430378092178</v>
+        <v>-5.729915415862598</v>
       </c>
       <c r="E185">
-        <v>0.1622777611234972</v>
+        <v>29.11024078492656</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -5286,16 +5286,16 @@
         <v>-2</v>
       </c>
       <c r="B186">
-        <v>0.07124079405592081</v>
+        <v>5.155354090495895</v>
       </c>
       <c r="C186">
-        <v>0.05708923286168859</v>
+        <v>5.880806865499019</v>
       </c>
       <c r="D186">
-        <v>-0.04065204625800932</v>
+        <v>-6.370815565918066</v>
       </c>
       <c r="E186">
-        <v>0.1831336343698509</v>
+        <v>16.68152374690986</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -5322,7 +5322,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -5331,16 +5331,16 @@
         <v>0</v>
       </c>
       <c r="B188">
-        <v>0.0003757727289589964</v>
+        <v>-7.500960653574106</v>
       </c>
       <c r="C188">
-        <v>0.05321576899507292</v>
+        <v>5.044434103308272</v>
       </c>
       <c r="D188">
-        <v>-0.1039252179109872</v>
+        <v>-17.38786981844392</v>
       </c>
       <c r="E188">
-        <v>0.1046767633689052</v>
+        <v>2.385948511295707</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -5358,16 +5358,16 @@
         <v>1</v>
       </c>
       <c r="B189">
-        <v>-0.1328920698704324</v>
+        <v>-4.729136308233204</v>
       </c>
       <c r="C189">
-        <v>0.1286618784620839</v>
+        <v>7.595014766880659</v>
       </c>
       <c r="D189">
-        <v>-0.3850647178393863</v>
+        <v>-19.61509171336917</v>
       </c>
       <c r="E189">
-        <v>0.1192805780985216</v>
+        <v>10.15681909690276</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -5385,16 +5385,16 @@
         <v>2</v>
       </c>
       <c r="B190">
-        <v>0.03952386133748186</v>
+        <v>17.31427645824661</v>
       </c>
       <c r="C190">
-        <v>0.1817553707739933</v>
+        <v>14.6545715675211</v>
       </c>
       <c r="D190">
-        <v>-0.3167101193762688</v>
+        <v>-11.40815602295944</v>
       </c>
       <c r="E190">
-        <v>0.3957578420512325</v>
+        <v>46.03670893945265</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>
@@ -5412,16 +5412,16 @@
         <v>3</v>
       </c>
       <c r="B191">
-        <v>0.2876971797193135</v>
+        <v>13.24801506946254</v>
       </c>
       <c r="C191">
-        <v>0.2108252929243518</v>
+        <v>15.90555452399594</v>
       </c>
       <c r="D191">
-        <v>-0.1255128014425231</v>
+        <v>-17.92629895170762</v>
       </c>
       <c r="E191">
-        <v>0.7009071608811501</v>
+        <v>44.4223290906327</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>INDENIZ_per_trab</t>
+          <t>SAL_per_trabSOCIO</t>
         </is>
       </c>
     </row>

--- a/data/model_data/all_estimators_results.xlsx
+++ b/data/model_data/all_estimators_results.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G191"/>
+  <dimension ref="A1:G305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -888,13 +888,13 @@
         <v>-0.2396140393470111</v>
       </c>
       <c r="C20">
-        <v>0.39087186397441</v>
+        <v>0.4009945785268532</v>
       </c>
       <c r="D20">
-        <v>-1.206554479042627</v>
+        <v>-1.246445310409839</v>
       </c>
       <c r="E20">
-        <v>0.7273264003486051</v>
+        <v>0.7672172317158167</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -915,13 +915,13 @@
         <v>-0.1374756589886744</v>
       </c>
       <c r="C21">
-        <v>0.3408254676471096</v>
+        <v>0.3352319422677953</v>
       </c>
       <c r="D21">
-        <v>-0.980611115696134</v>
+        <v>-0.9791877932881216</v>
       </c>
       <c r="E21">
-        <v>0.7056597977187852</v>
+        <v>0.7042364753107727</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -942,13 +942,13 @@
         <v>-0.2341110531532761</v>
       </c>
       <c r="C22">
-        <v>0.3177470963872325</v>
+        <v>0.3091602618678015</v>
       </c>
       <c r="D22">
-        <v>-1.020155139234618</v>
+        <v>-1.010361496643077</v>
       </c>
       <c r="E22">
-        <v>0.5519330329280664</v>
+        <v>0.5421393903365243</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -969,13 +969,13 @@
         <v>-0.01177717135546133</v>
       </c>
       <c r="C23">
-        <v>0.2486132959922285</v>
+        <v>0.2464685442651017</v>
       </c>
       <c r="D23">
-        <v>-0.6267977750299182</v>
+        <v>-0.6306190484977462</v>
       </c>
       <c r="E23">
-        <v>0.6032434323189956</v>
+        <v>0.6070647057868236</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -996,13 +996,13 @@
         <v>0.02733224603251</v>
       </c>
       <c r="C24">
-        <v>0.2081040013657307</v>
+        <v>0.1931356413673933</v>
       </c>
       <c r="D24">
-        <v>-0.487476296431858</v>
+        <v>-0.4575995054137135</v>
       </c>
       <c r="E24">
-        <v>0.5421407884968781</v>
+        <v>0.5122639974787335</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1041,13 +1041,13 @@
         <v>-0.4270658898722482</v>
       </c>
       <c r="C26">
-        <v>0.1720278783698308</v>
+        <v>0.1735349129276784</v>
       </c>
       <c r="D26">
-        <v>-0.8526291695093784</v>
+        <v>-0.8627834439564644</v>
       </c>
       <c r="E26">
-        <v>-0.001502610235118051</v>
+        <v>0.008651664211967947</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1068,13 +1068,13 @@
         <v>-0.9306712073074095</v>
       </c>
       <c r="C27">
-        <v>0.3150823967056441</v>
+        <v>0.3243879806131225</v>
       </c>
       <c r="D27">
-        <v>-1.71012334825468</v>
+        <v>-1.745155941834419</v>
       </c>
       <c r="E27">
-        <v>-0.1512190663601393</v>
+        <v>-0.1161864727804001</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1095,13 +1095,13 @@
         <v>-0.7637652278853471</v>
       </c>
       <c r="C28">
-        <v>0.4249372135732636</v>
+        <v>0.4599627300650865</v>
       </c>
       <c r="D28">
-        <v>-1.814976670831422</v>
+        <v>-1.91865580484597</v>
       </c>
       <c r="E28">
-        <v>0.287446215060728</v>
+        <v>0.3911253490752762</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1122,13 +1122,13 @@
         <v>-0.1119901245415251</v>
       </c>
       <c r="C29">
-        <v>0.6132250599240232</v>
+        <v>0.6137905901010027</v>
       </c>
       <c r="D29">
-        <v>-1.628988823414682</v>
+        <v>-1.653117095055944</v>
       </c>
       <c r="E29">
-        <v>1.405008574331632</v>
+        <v>1.429136845972894</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1896,13 +1896,13 @@
         <v>0.5870702272530597</v>
       </c>
       <c r="C58">
-        <v>0.4601602351000993</v>
+        <v>0.4769160285527947</v>
       </c>
       <c r="D58">
-        <v>-0.5342510411560601</v>
+        <v>-0.5715105822923574</v>
       </c>
       <c r="E58">
-        <v>1.70839149566218</v>
+        <v>1.745651036798477</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1923,13 +1923,13 @@
         <v>0.07098023546184942</v>
       </c>
       <c r="C59">
-        <v>0.3498647663289067</v>
+        <v>0.3258264336938363</v>
       </c>
       <c r="D59">
-        <v>-0.7815723617138931</v>
+        <v>-0.7205558646474638</v>
       </c>
       <c r="E59">
-        <v>0.9235328326375919</v>
+        <v>0.8625163355711626</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1950,13 +1950,13 @@
         <v>-0.09207466635658938</v>
       </c>
       <c r="C60">
-        <v>0.3044611126782634</v>
+        <v>0.3086804193657478</v>
       </c>
       <c r="D60">
-        <v>-0.833987363300899</v>
+        <v>-0.841957641027878</v>
       </c>
       <c r="E60">
-        <v>0.6498380305877203</v>
+        <v>0.6578083083146993</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -1977,13 +1977,13 @@
         <v>0.285399278151076</v>
       </c>
       <c r="C61">
-        <v>0.3415988798144477</v>
+        <v>0.3651178120753662</v>
       </c>
       <c r="D61">
-        <v>-0.5470109563346293</v>
+        <v>-0.6015880843357375</v>
       </c>
       <c r="E61">
-        <v>1.117809512636781</v>
+        <v>1.17238664063789</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2004,13 +2004,13 @@
         <v>0.2234169431307561</v>
       </c>
       <c r="C62">
-        <v>0.189888175893869</v>
+        <v>0.1892878942707387</v>
       </c>
       <c r="D62">
-        <v>-0.2393037224280339</v>
+        <v>-0.2364235919982968</v>
       </c>
       <c r="E62">
-        <v>0.6861376086895461</v>
+        <v>0.6832574782598091</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2049,13 +2049,13 @@
         <v>-1.267120215603461</v>
       </c>
       <c r="C64">
-        <v>0.1790585690231957</v>
+        <v>0.1819294836376622</v>
       </c>
       <c r="D64">
-        <v>-1.703451229066489</v>
+        <v>-1.70908482952662</v>
       </c>
       <c r="E64">
-        <v>-0.8307892021404324</v>
+        <v>-0.8251556016803013</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2076,13 +2076,13 @@
         <v>-2.016076308754292</v>
       </c>
       <c r="C65">
-        <v>0.3101737823951707</v>
+        <v>0.3155305336209718</v>
       </c>
       <c r="D65">
-        <v>-2.771909674118747</v>
+        <v>-2.782600390966837</v>
       </c>
       <c r="E65">
-        <v>-1.260242943389836</v>
+        <v>-1.249552226541747</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2103,13 +2103,13 @@
         <v>-1.92912244068592</v>
       </c>
       <c r="C66">
-        <v>0.3620150160878739</v>
+        <v>0.3768874789059828</v>
       </c>
       <c r="D66">
-        <v>-2.81128284060509</v>
+        <v>-2.844702069543136</v>
       </c>
       <c r="E66">
-        <v>-1.046962040766751</v>
+        <v>-1.013542811828705</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2130,13 +2130,13 @@
         <v>-2.069460151140822</v>
       </c>
       <c r="C67">
-        <v>0.6185942944631646</v>
+        <v>0.576449346945329</v>
       </c>
       <c r="D67">
-        <v>-3.576854502039463</v>
+        <v>-3.469839067052879</v>
       </c>
       <c r="E67">
-        <v>-0.5620658002421812</v>
+        <v>-0.6690812352287654</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2904,13 +2904,13 @@
         <v>1.42980282895038</v>
       </c>
       <c r="C96">
-        <v>1.519443390082081</v>
+        <v>1.430336095554569</v>
       </c>
       <c r="D96">
-        <v>-2.236719079149894</v>
+        <v>-2.031833332669652</v>
       </c>
       <c r="E96">
-        <v>5.096324737050654</v>
+        <v>4.891438990570413</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -2931,13 +2931,13 @@
         <v>0.06434876664754138</v>
       </c>
       <c r="C97">
-        <v>1.070850645417137</v>
+        <v>1.025710256272263</v>
       </c>
       <c r="D97">
-        <v>-2.519687846597491</v>
+        <v>-2.4180298333835</v>
       </c>
       <c r="E97">
-        <v>2.648385379892574</v>
+        <v>2.546727366678583</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -2958,13 +2958,13 @@
         <v>-0.6528919001251016</v>
       </c>
       <c r="C98">
-        <v>0.9687902518401488</v>
+        <v>0.9808480544748933</v>
       </c>
       <c r="D98">
-        <v>-2.990649730335546</v>
+        <v>-3.026696983404153</v>
       </c>
       <c r="E98">
-        <v>1.684865930085343</v>
+        <v>1.72091318315395</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -2985,13 +2985,13 @@
         <v>0.3373392811970612</v>
       </c>
       <c r="C99">
-        <v>1.098484750210111</v>
+        <v>1.005395453509178</v>
       </c>
       <c r="D99">
-        <v>-2.313380336690023</v>
+        <v>-2.095874331612142</v>
       </c>
       <c r="E99">
-        <v>2.988058899084145</v>
+        <v>2.770552894006264</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -3012,13 +3012,13 @@
         <v>0.3382643633743995</v>
       </c>
       <c r="C100">
-        <v>0.6063546019064926</v>
+        <v>0.5971416366873111</v>
       </c>
       <c r="D100">
-        <v>-1.124911195833158</v>
+        <v>-1.106911417052451</v>
       </c>
       <c r="E100">
-        <v>1.801439922581957</v>
+        <v>1.78344014380125</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -3057,13 +3057,13 @@
         <v>-0.4174192935023275</v>
       </c>
       <c r="C102">
-        <v>0.5192574761533386</v>
+        <v>0.5033139807836804</v>
       </c>
       <c r="D102">
-        <v>-1.67042346903678</v>
+        <v>-1.635517530654204</v>
       </c>
       <c r="E102">
-        <v>0.8355848820321252</v>
+        <v>0.8006789436495489</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -3084,13 +3084,13 @@
         <v>-0.01092859822361969</v>
       </c>
       <c r="C103">
-        <v>0.888182856904579</v>
+        <v>0.9083632262051836</v>
       </c>
       <c r="D103">
-        <v>-2.154175213725241</v>
+        <v>-2.209309105777369</v>
       </c>
       <c r="E103">
-        <v>2.132318017278001</v>
+        <v>2.18745190933013</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -3111,13 +3111,13 @@
         <v>1.614936260770854</v>
       </c>
       <c r="C104">
-        <v>1.404904233172632</v>
+        <v>1.402623613775064</v>
       </c>
       <c r="D104">
-        <v>-1.775194745973666</v>
+        <v>-1.779631378035332</v>
       </c>
       <c r="E104">
-        <v>5.005067267515375</v>
+        <v>5.009503899577041</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -3138,13 +3138,13 @@
         <v>2.196067314017121</v>
       </c>
       <c r="C105">
-        <v>2.551408866127369</v>
+        <v>2.575432676523791</v>
       </c>
       <c r="D105">
-        <v>-3.960658606302904</v>
+        <v>-4.036880950786351</v>
       </c>
       <c r="E105">
-        <v>8.352793234337147</v>
+        <v>8.429015578820595</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3912,13 +3912,13 @@
         <v>1.027673705898563</v>
       </c>
       <c r="C134">
-        <v>2.671372526248502</v>
+        <v>2.728215086269358</v>
       </c>
       <c r="D134">
-        <v>-6.189979358802844</v>
+        <v>-5.816009243147326</v>
       </c>
       <c r="E134">
-        <v>8.24532677059997</v>
+        <v>7.871356654944451</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -3939,13 +3939,13 @@
         <v>0.7864932810125855</v>
       </c>
       <c r="C135">
-        <v>2.088240287643886</v>
+        <v>2.065494842057491</v>
       </c>
       <c r="D135">
-        <v>-4.855622808693642</v>
+        <v>-4.394766768121043</v>
       </c>
       <c r="E135">
-        <v>6.428609370718814</v>
+        <v>5.967753330146214</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -3966,13 +3966,13 @@
         <v>0.9295208705827386</v>
       </c>
       <c r="C136">
-        <v>1.915389329143507</v>
+        <v>1.722278448266431</v>
       </c>
       <c r="D136">
-        <v>-4.245577520132306</v>
+        <v>-3.390786464872878</v>
       </c>
       <c r="E136">
-        <v>6.104619261297783</v>
+        <v>5.249828206038355</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -3993,13 +3993,13 @@
         <v>1.731964394150766</v>
       </c>
       <c r="C137">
-        <v>2.011090723651889</v>
+        <v>1.861269423625647</v>
       </c>
       <c r="D137">
-        <v>-3.701704995772561</v>
+        <v>-2.936999531074624</v>
       </c>
       <c r="E137">
-        <v>7.165633784074092</v>
+        <v>6.400928319376156</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -4020,13 +4020,13 @@
         <v>0.9780623539342782</v>
       </c>
       <c r="C138">
-        <v>1.141862355889659</v>
+        <v>1.14499219327148</v>
       </c>
       <c r="D138">
-        <v>-2.107080677025944</v>
+        <v>-1.89413184707273</v>
       </c>
       <c r="E138">
-        <v>4.0632053848945</v>
+        <v>3.850256554941286</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -4065,13 +4065,13 @@
         <v>0.9186459052249102</v>
       </c>
       <c r="C140">
-        <v>1.074684986177434</v>
+        <v>0.9921150468508887</v>
       </c>
       <c r="D140">
-        <v>-1.984993818496119</v>
+        <v>-1.570058472885452</v>
       </c>
       <c r="E140">
-        <v>3.822285628945939</v>
+        <v>3.407350283335272</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -4092,13 +4092,13 @@
         <v>1.812065975019463</v>
       </c>
       <c r="C141">
-        <v>1.744859986371343</v>
+        <v>1.824682754940179</v>
       </c>
       <c r="D141">
-        <v>-2.9022873786829</v>
+        <v>-2.765120889846835</v>
       </c>
       <c r="E141">
-        <v>6.526419328721826</v>
+        <v>6.38925283988576</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -4119,13 +4119,13 @@
         <v>2.183658952710718</v>
       </c>
       <c r="C142">
-        <v>2.502086042368495</v>
+        <v>2.485156673200445</v>
       </c>
       <c r="D142">
-        <v>-4.576607095697256</v>
+        <v>-4.050315940136246</v>
       </c>
       <c r="E142">
-        <v>8.943925001118691</v>
+        <v>8.417633845557683</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -4146,13 +4146,13 @@
         <v>5.273911487541372</v>
       </c>
       <c r="C143">
-        <v>3.677846799197312</v>
+        <v>3.746855351519277</v>
       </c>
       <c r="D143">
-        <v>-4.663086052448819</v>
+        <v>-4.125013916392905</v>
       </c>
       <c r="E143">
-        <v>15.21090902753156</v>
+        <v>14.67283689147565</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -4920,13 +4920,13 @@
         <v>6.718394248219848</v>
       </c>
       <c r="C172">
-        <v>21.75776477177765</v>
+        <v>21.33907824082001</v>
       </c>
       <c r="D172">
-        <v>-46.35379836340586</v>
+        <v>-45.57168705581388</v>
       </c>
       <c r="E172">
-        <v>59.79058685984556</v>
+        <v>59.00847555225359</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -4947,13 +4947,13 @@
         <v>10.72174029209432</v>
       </c>
       <c r="C173">
-        <v>20.84438061646383</v>
+        <v>21.2173073175562</v>
       </c>
       <c r="D173">
-        <v>-40.12249828437701</v>
+        <v>-41.26994895366617</v>
       </c>
       <c r="E173">
-        <v>61.56597886856564</v>
+        <v>62.71342953785481</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -4974,13 +4974,13 @@
         <v>3.790621945760329</v>
       </c>
       <c r="C174">
-        <v>9.884364057166724</v>
+        <v>8.986364462081987</v>
       </c>
       <c r="D174">
-        <v>-20.31961541491884</v>
+        <v>-18.22990410728485</v>
       </c>
       <c r="E174">
-        <v>27.9008593064395</v>
+        <v>25.81114799880551</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -5001,13 +5001,13 @@
         <v>11.69016268453194</v>
       </c>
       <c r="C175">
-        <v>9.51247173054905</v>
+        <v>9.268926233397716</v>
       </c>
       <c r="D175">
-        <v>-11.51294375548206</v>
+        <v>-11.02276337889641</v>
       </c>
       <c r="E175">
-        <v>34.89326912454594</v>
+        <v>34.4030887479603</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -5028,13 +5028,13 @@
         <v>5.155354090495959</v>
       </c>
       <c r="C176">
-        <v>5.97510015678008</v>
+        <v>6.570111284855645</v>
       </c>
       <c r="D176">
-        <v>-9.419289477933372</v>
+        <v>-10.94429414100372</v>
       </c>
       <c r="E176">
-        <v>19.72999765892529</v>
+        <v>21.25500232199564</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -5073,13 +5073,13 @@
         <v>-7.500960653574505</v>
       </c>
       <c r="C178">
-        <v>5.17782692249389</v>
+        <v>5.154628953104216</v>
       </c>
       <c r="D178">
-        <v>-20.13087142900042</v>
+        <v>-20.13205764886759</v>
       </c>
       <c r="E178">
-        <v>5.12895012185141</v>
+        <v>5.130136341718582</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -5100,13 +5100,13 @@
         <v>-4.729136308233579</v>
       </c>
       <c r="C179">
-        <v>8.156179045242547</v>
+        <v>7.29952560823636</v>
       </c>
       <c r="D179">
-        <v>-24.623932938515</v>
+        <v>-22.61616887955649</v>
       </c>
       <c r="E179">
-        <v>15.16566032204785</v>
+        <v>13.15789626308933</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -5127,13 +5127,13 @@
         <v>17.31427645824628</v>
       </c>
       <c r="C180">
-        <v>14.22787889510443</v>
+        <v>15.43103330091026</v>
       </c>
       <c r="D180">
-        <v>-17.39079261003069</v>
+        <v>-20.49850893031524</v>
       </c>
       <c r="E180">
-        <v>52.01934552652325</v>
+        <v>55.12706184680779</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -5154,13 +5154,13 @@
         <v>13.24801506946151</v>
       </c>
       <c r="C181">
-        <v>16.12025456223805</v>
+        <v>16.24122413764946</v>
       </c>
       <c r="D181">
-        <v>-26.07299350147712</v>
+        <v>-26.55009247063674</v>
       </c>
       <c r="E181">
-        <v>52.56902364040015</v>
+        <v>53.04612260955976</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -5431,6 +5431,3030 @@
       <c r="G191" t="inlineStr">
         <is>
           <t>SAL_per_trabSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192">
+        <v>-6</v>
+      </c>
+      <c r="B192">
+        <v>-918.704629767356</v>
+      </c>
+      <c r="C192">
+        <v>1641.475968784755</v>
+      </c>
+      <c r="D192">
+        <v>-4138.025452909687</v>
+      </c>
+      <c r="E192">
+        <v>2300.616193374975</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>TWFE</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193">
+        <v>-5</v>
+      </c>
+      <c r="B193">
+        <v>-1051.379861054068</v>
+      </c>
+      <c r="C193">
+        <v>1189.150083252684</v>
+      </c>
+      <c r="D193">
+        <v>-3383.583132778479</v>
+      </c>
+      <c r="E193">
+        <v>1280.823410670342</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>TWFE</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194">
+        <v>-4</v>
+      </c>
+      <c r="B194">
+        <v>-1069.093330280522</v>
+      </c>
+      <c r="C194">
+        <v>933.1135541158935</v>
+      </c>
+      <c r="D194">
+        <v>-2899.148690363321</v>
+      </c>
+      <c r="E194">
+        <v>760.9620298022762</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>TWFE</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195">
+        <v>-3</v>
+      </c>
+      <c r="B195">
+        <v>-661.7266993533591</v>
+      </c>
+      <c r="C195">
+        <v>746.210260078152</v>
+      </c>
+      <c r="D195">
+        <v>-2125.220697678875</v>
+      </c>
+      <c r="E195">
+        <v>801.7672989721565</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>TWFE</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196">
+        <v>-2</v>
+      </c>
+      <c r="B196">
+        <v>-781.4083213501724</v>
+      </c>
+      <c r="C196">
+        <v>432.3577617159897</v>
+      </c>
+      <c r="D196">
+        <v>-1629.363680922064</v>
+      </c>
+      <c r="E196">
+        <v>66.5470382217195</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>TWFE</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197">
+        <v>0</v>
+      </c>
+      <c r="B197">
+        <v>-27.72498490970423</v>
+      </c>
+      <c r="C197">
+        <v>423.1816667092053</v>
+      </c>
+      <c r="D197">
+        <v>-857.6838618694603</v>
+      </c>
+      <c r="E197">
+        <v>802.233892050052</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>TWFE</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198">
+        <v>1</v>
+      </c>
+      <c r="B198">
+        <v>552.0794908348126</v>
+      </c>
+      <c r="C198">
+        <v>598.3344002994817</v>
+      </c>
+      <c r="D198">
+        <v>-621.3951324413114</v>
+      </c>
+      <c r="E198">
+        <v>1725.554114110937</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>TWFE</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199">
+        <v>2</v>
+      </c>
+      <c r="B199">
+        <v>828.2104721785593</v>
+      </c>
+      <c r="C199">
+        <v>798.0319714086854</v>
+      </c>
+      <c r="D199">
+        <v>-736.9181023148719</v>
+      </c>
+      <c r="E199">
+        <v>2393.33904667199</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>TWFE</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200">
+        <v>3</v>
+      </c>
+      <c r="B200">
+        <v>1735.560317325427</v>
+      </c>
+      <c r="C200">
+        <v>1304.206646348323</v>
+      </c>
+      <c r="D200">
+        <v>-822.2959620925446</v>
+      </c>
+      <c r="E200">
+        <v>4293.416596743399</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>TWFE</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201">
+        <v>-6</v>
+      </c>
+      <c r="B201">
+        <v>-1215.208172877488</v>
+      </c>
+      <c r="C201">
+        <v>1549.316445828174</v>
+      </c>
+      <c r="D201">
+        <v>-4253.789892851442</v>
+      </c>
+      <c r="E201">
+        <v>1823.373547096466</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Sun &amp; Abraham</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202">
+        <v>-5</v>
+      </c>
+      <c r="B202">
+        <v>-1072.04749924046</v>
+      </c>
+      <c r="C202">
+        <v>1182.481258098318</v>
+      </c>
+      <c r="D202">
+        <v>-3391.177296606491</v>
+      </c>
+      <c r="E202">
+        <v>1247.082298125571</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Sun &amp; Abraham</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203">
+        <v>-4</v>
+      </c>
+      <c r="B203">
+        <v>-1063.821884774491</v>
+      </c>
+      <c r="C203">
+        <v>977.5311998873892</v>
+      </c>
+      <c r="D203">
+        <v>-2980.995385824028</v>
+      </c>
+      <c r="E203">
+        <v>853.3516162750459</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Sun &amp; Abraham</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204">
+        <v>-3</v>
+      </c>
+      <c r="B204">
+        <v>-801.7461439407555</v>
+      </c>
+      <c r="C204">
+        <v>730.6471499115868</v>
+      </c>
+      <c r="D204">
+        <v>-2234.720717631325</v>
+      </c>
+      <c r="E204">
+        <v>631.2284297498143</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Sun &amp; Abraham</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205">
+        <v>-2</v>
+      </c>
+      <c r="B205">
+        <v>-806.7920497175896</v>
+      </c>
+      <c r="C205">
+        <v>438.3220796224762</v>
+      </c>
+      <c r="D205">
+        <v>-1666.446939580893</v>
+      </c>
+      <c r="E205">
+        <v>52.86284014571402</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Sun &amp; Abraham</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206">
+        <v>0</v>
+      </c>
+      <c r="B206">
+        <v>-220.5857959583813</v>
+      </c>
+      <c r="C206">
+        <v>524.8909609460218</v>
+      </c>
+      <c r="D206">
+        <v>-1250.023057277576</v>
+      </c>
+      <c r="E206">
+        <v>808.8514653608133</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Sun &amp; Abraham</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207">
+        <v>1</v>
+      </c>
+      <c r="B207">
+        <v>459.4366640622865</v>
+      </c>
+      <c r="C207">
+        <v>645.082649501202</v>
+      </c>
+      <c r="D207">
+        <v>-805.7253704108859</v>
+      </c>
+      <c r="E207">
+        <v>1724.598698535459</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Sun &amp; Abraham</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208">
+        <v>2</v>
+      </c>
+      <c r="B208">
+        <v>920.3330264184453</v>
+      </c>
+      <c r="C208">
+        <v>731.6064555958777</v>
+      </c>
+      <c r="D208">
+        <v>-514.5229761590394</v>
+      </c>
+      <c r="E208">
+        <v>2355.18902899593</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Sun &amp; Abraham</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209">
+        <v>3</v>
+      </c>
+      <c r="B209">
+        <v>1521.678400490807</v>
+      </c>
+      <c r="C209">
+        <v>946.358266150013</v>
+      </c>
+      <c r="D209">
+        <v>-334.357489280281</v>
+      </c>
+      <c r="E209">
+        <v>3377.714290261895</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Sun &amp; Abraham</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210">
+        <v>-6</v>
+      </c>
+      <c r="B210">
+        <v>-1221.099959723453</v>
+      </c>
+      <c r="C210">
+        <v>1754.521713968963</v>
+      </c>
+      <c r="D210">
+        <v>-5403.793544371219</v>
+      </c>
+      <c r="E210">
+        <v>2961.593624924313</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Callaway &amp; Sant'anna</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211">
+        <v>-5</v>
+      </c>
+      <c r="B211">
+        <v>-1008.335000608495</v>
+      </c>
+      <c r="C211">
+        <v>1407.427144623885</v>
+      </c>
+      <c r="D211">
+        <v>-4363.572181093788</v>
+      </c>
+      <c r="E211">
+        <v>2346.902179876799</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Callaway &amp; Sant'anna</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212">
+        <v>-4</v>
+      </c>
+      <c r="B212">
+        <v>-993.0053471294435</v>
+      </c>
+      <c r="C212">
+        <v>1175.212459824585</v>
+      </c>
+      <c r="D212">
+        <v>-3794.654125352181</v>
+      </c>
+      <c r="E212">
+        <v>1808.643431093294</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Callaway &amp; Sant'anna</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213">
+        <v>-3</v>
+      </c>
+      <c r="B213">
+        <v>-727.9513842248782</v>
+      </c>
+      <c r="C213">
+        <v>720.0430618242788</v>
+      </c>
+      <c r="D213">
+        <v>-2444.498675366481</v>
+      </c>
+      <c r="E213">
+        <v>988.5959069167243</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Callaway &amp; Sant'anna</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214">
+        <v>-2</v>
+      </c>
+      <c r="B214">
+        <v>-745.3127192753698</v>
+      </c>
+      <c r="C214">
+        <v>471.6866636533528</v>
+      </c>
+      <c r="D214">
+        <v>-1869.790556351422</v>
+      </c>
+      <c r="E214">
+        <v>379.1651178006821</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Callaway &amp; Sant'anna</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215">
+        <v>-1</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Callaway &amp; Sant'anna</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216">
+        <v>0</v>
+      </c>
+      <c r="B216">
+        <v>-295.5997549527668</v>
+      </c>
+      <c r="C216">
+        <v>573.5125362527849</v>
+      </c>
+      <c r="D216">
+        <v>-1662.825470656863</v>
+      </c>
+      <c r="E216">
+        <v>1071.625960751329</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Callaway &amp; Sant'anna</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217">
+        <v>1</v>
+      </c>
+      <c r="B217">
+        <v>452.4353485871558</v>
+      </c>
+      <c r="C217">
+        <v>668.155494862533</v>
+      </c>
+      <c r="D217">
+        <v>-1140.414531615642</v>
+      </c>
+      <c r="E217">
+        <v>2045.285228789953</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Callaway &amp; Sant'anna</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218">
+        <v>2</v>
+      </c>
+      <c r="B218">
+        <v>870.693635088611</v>
+      </c>
+      <c r="C218">
+        <v>772.6641201861172</v>
+      </c>
+      <c r="D218">
+        <v>-971.2996744607924</v>
+      </c>
+      <c r="E218">
+        <v>2712.686944638014</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Callaway &amp; Sant'anna</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219">
+        <v>3</v>
+      </c>
+      <c r="B219">
+        <v>1286.169226730143</v>
+      </c>
+      <c r="C219">
+        <v>948.8935731024987</v>
+      </c>
+      <c r="D219">
+        <v>-975.9464422467104</v>
+      </c>
+      <c r="E219">
+        <v>3548.284895706997</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Callaway &amp; Sant'anna</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220">
+        <v>-6</v>
+      </c>
+      <c r="B220">
+        <v>-1221.099959723431</v>
+      </c>
+      <c r="C220">
+        <v>1576.537736268803</v>
+      </c>
+      <c r="D220">
+        <v>-4311.057143078591</v>
+      </c>
+      <c r="E220">
+        <v>1868.857223631728</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>ETWFE</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221">
+        <v>-5</v>
+      </c>
+      <c r="B221">
+        <v>-1008.335000608423</v>
+      </c>
+      <c r="C221">
+        <v>1192.427958772985</v>
+      </c>
+      <c r="D221">
+        <v>-3345.450853962086</v>
+      </c>
+      <c r="E221">
+        <v>1328.78085274524</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>ETWFE</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222">
+        <v>-4</v>
+      </c>
+      <c r="B222">
+        <v>-993.0053471293653</v>
+      </c>
+      <c r="C222">
+        <v>991.0852475331974</v>
+      </c>
+      <c r="D222">
+        <v>-2935.496737903396</v>
+      </c>
+      <c r="E222">
+        <v>949.4860436446655</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>ETWFE</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223">
+        <v>-3</v>
+      </c>
+      <c r="B223">
+        <v>-727.9513842248031</v>
+      </c>
+      <c r="C223">
+        <v>747.0742323154534</v>
+      </c>
+      <c r="D223">
+        <v>-2192.189973341001</v>
+      </c>
+      <c r="E223">
+        <v>736.2872048913947</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>ETWFE</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224">
+        <v>-2</v>
+      </c>
+      <c r="B224">
+        <v>-745.312719275328</v>
+      </c>
+      <c r="C224">
+        <v>448.2515688225541</v>
+      </c>
+      <c r="D224">
+        <v>-1623.869650181111</v>
+      </c>
+      <c r="E224">
+        <v>133.2442116304552</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>ETWFE</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225">
+        <v>-1</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>ETWFE</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226">
+        <v>0</v>
+      </c>
+      <c r="B226">
+        <v>-295.5997549527116</v>
+      </c>
+      <c r="C226">
+        <v>532.6719705804821</v>
+      </c>
+      <c r="D226">
+        <v>-1339.617632864436</v>
+      </c>
+      <c r="E226">
+        <v>748.4181229590123</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>ETWFE</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227">
+        <v>1</v>
+      </c>
+      <c r="B227">
+        <v>452.4353485872069</v>
+      </c>
+      <c r="C227">
+        <v>643.8722050662077</v>
+      </c>
+      <c r="D227">
+        <v>-809.5309839889479</v>
+      </c>
+      <c r="E227">
+        <v>1714.401681163362</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>ETWFE</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228">
+        <v>2</v>
+      </c>
+      <c r="B228">
+        <v>870.693635088659</v>
+      </c>
+      <c r="C228">
+        <v>734.5942636523391</v>
+      </c>
+      <c r="D228">
+        <v>-569.0846649196462</v>
+      </c>
+      <c r="E228">
+        <v>2310.471935096964</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>ETWFE</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229">
+        <v>3</v>
+      </c>
+      <c r="B229">
+        <v>1286.169226730271</v>
+      </c>
+      <c r="C229">
+        <v>954.7852469396031</v>
+      </c>
+      <c r="D229">
+        <v>-585.1754702415321</v>
+      </c>
+      <c r="E229">
+        <v>3157.513923702075</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>ETWFE</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>SALSOCIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230">
+        <v>-6</v>
+      </c>
+      <c r="B230">
+        <v>-423.0778590360514</v>
+      </c>
+      <c r="C230">
+        <v>49312.45339852176</v>
+      </c>
+      <c r="D230">
+        <v>-97136.14079318078</v>
+      </c>
+      <c r="E230">
+        <v>96289.98507510866</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>TWFE</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231">
+        <v>-5</v>
+      </c>
+      <c r="B231">
+        <v>-2318.823341899662</v>
+      </c>
+      <c r="C231">
+        <v>36100.80296703392</v>
+      </c>
+      <c r="D231">
+        <v>-73120.80111225681</v>
+      </c>
+      <c r="E231">
+        <v>68483.15442845748</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>TWFE</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232">
+        <v>-4</v>
+      </c>
+      <c r="B232">
+        <v>-8387.875627116589</v>
+      </c>
+      <c r="C232">
+        <v>25281.51895711344</v>
+      </c>
+      <c r="D232">
+        <v>-57970.7490284911</v>
+      </c>
+      <c r="E232">
+        <v>41194.99777425792</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>TWFE</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233">
+        <v>-3</v>
+      </c>
+      <c r="B233">
+        <v>-12055.10205623534</v>
+      </c>
+      <c r="C233">
+        <v>16679.48602748545</v>
+      </c>
+      <c r="D233">
+        <v>-44767.41042282221</v>
+      </c>
+      <c r="E233">
+        <v>20657.20631035152</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>TWFE</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234">
+        <v>-2</v>
+      </c>
+      <c r="B234">
+        <v>-5404.830215925052</v>
+      </c>
+      <c r="C234">
+        <v>10232.38268606556</v>
+      </c>
+      <c r="D234">
+        <v>-25472.88610205495</v>
+      </c>
+      <c r="E234">
+        <v>14663.22567020485</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>TWFE</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235">
+        <v>0</v>
+      </c>
+      <c r="B235">
+        <v>-2471.733674327828</v>
+      </c>
+      <c r="C235">
+        <v>9637.957048798929</v>
+      </c>
+      <c r="D235">
+        <v>-21373.98416841938</v>
+      </c>
+      <c r="E235">
+        <v>16430.51681976372</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>TWFE</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236">
+        <v>1</v>
+      </c>
+      <c r="B236">
+        <v>5148.007502586021</v>
+      </c>
+      <c r="C236">
+        <v>15127.86419652885</v>
+      </c>
+      <c r="D236">
+        <v>-24521.21358187838</v>
+      </c>
+      <c r="E236">
+        <v>34817.22858705042</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>TWFE</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237">
+        <v>2</v>
+      </c>
+      <c r="B237">
+        <v>3972.669738334665</v>
+      </c>
+      <c r="C237">
+        <v>23929.85819724131</v>
+      </c>
+      <c r="D237">
+        <v>-42959.28603217939</v>
+      </c>
+      <c r="E237">
+        <v>50904.62550884871</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>TWFE</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238">
+        <v>3</v>
+      </c>
+      <c r="B238">
+        <v>27191.90721155774</v>
+      </c>
+      <c r="C238">
+        <v>44520.7384896554</v>
+      </c>
+      <c r="D238">
+        <v>-60123.50069620852</v>
+      </c>
+      <c r="E238">
+        <v>114507.315119324</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>TWFE</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239">
+        <v>-6</v>
+      </c>
+      <c r="B239">
+        <v>8204.884848484779</v>
+      </c>
+      <c r="C239">
+        <v>53313.27070156878</v>
+      </c>
+      <c r="D239">
+        <v>-96354.95408944442</v>
+      </c>
+      <c r="E239">
+        <v>112764.723786414</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Sun &amp; Abraham</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240">
+        <v>-5</v>
+      </c>
+      <c r="B240">
+        <v>3603.401598401457</v>
+      </c>
+      <c r="C240">
+        <v>38236.92115029775</v>
+      </c>
+      <c r="D240">
+        <v>-71388.17675246095</v>
+      </c>
+      <c r="E240">
+        <v>78594.97994926386</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Sun &amp; Abraham</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241">
+        <v>-4</v>
+      </c>
+      <c r="B241">
+        <v>-8314.113027671907</v>
+      </c>
+      <c r="C241">
+        <v>24910.17202059184</v>
+      </c>
+      <c r="D241">
+        <v>-57168.80793035306</v>
+      </c>
+      <c r="E241">
+        <v>40540.58187500925</v>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Sun &amp; Abraham</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242">
+        <v>-3</v>
+      </c>
+      <c r="B242">
+        <v>-16570.10790461826</v>
+      </c>
+      <c r="C242">
+        <v>16878.62558820664</v>
+      </c>
+      <c r="D242">
+        <v>-49673.05487771712</v>
+      </c>
+      <c r="E242">
+        <v>16532.83906848061</v>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Sun &amp; Abraham</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243">
+        <v>-2</v>
+      </c>
+      <c r="B243">
+        <v>-4540.462537462552</v>
+      </c>
+      <c r="C243">
+        <v>13130.11828580396</v>
+      </c>
+      <c r="D243">
+        <v>-30291.70674239224</v>
+      </c>
+      <c r="E243">
+        <v>21210.78166746714</v>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Sun &amp; Abraham</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244">
+        <v>0</v>
+      </c>
+      <c r="B244">
+        <v>-4325.333366633383</v>
+      </c>
+      <c r="C244">
+        <v>12148.1893285639</v>
+      </c>
+      <c r="D244">
+        <v>-28150.78438224205</v>
+      </c>
+      <c r="E244">
+        <v>19500.11764897528</v>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Sun &amp; Abraham</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245">
+        <v>1</v>
+      </c>
+      <c r="B245">
+        <v>6741.316383616218</v>
+      </c>
+      <c r="C245">
+        <v>16598.75117805525</v>
+      </c>
+      <c r="D245">
+        <v>-25812.73117169818</v>
+      </c>
+      <c r="E245">
+        <v>39295.36393893062</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Sun &amp; Abraham</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246">
+        <v>2</v>
+      </c>
+      <c r="B246">
+        <v>8085.045421559558</v>
+      </c>
+      <c r="C246">
+        <v>23663.54405909139</v>
+      </c>
+      <c r="D246">
+        <v>-38324.71940733848</v>
+      </c>
+      <c r="E246">
+        <v>54494.8102504576</v>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Sun &amp; Abraham</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247">
+        <v>3</v>
+      </c>
+      <c r="B247">
+        <v>28839.45017590254</v>
+      </c>
+      <c r="C247">
+        <v>37574.41389871526</v>
+      </c>
+      <c r="D247">
+        <v>-44852.79593349157</v>
+      </c>
+      <c r="E247">
+        <v>102531.6962852966</v>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Sun &amp; Abraham</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248">
+        <v>-6</v>
+      </c>
+      <c r="B248">
+        <v>8204.884848484844</v>
+      </c>
+      <c r="C248">
+        <v>65593.95762424901</v>
+      </c>
+      <c r="D248">
+        <v>-144106.3323312933</v>
+      </c>
+      <c r="E248">
+        <v>160516.102028263</v>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Callaway &amp; Sant'anna</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249">
+        <v>-5</v>
+      </c>
+      <c r="B249">
+        <v>3603.401598401595</v>
+      </c>
+      <c r="C249">
+        <v>49424.25955308167</v>
+      </c>
+      <c r="D249">
+        <v>-111161.2719079919</v>
+      </c>
+      <c r="E249">
+        <v>118368.0751047951</v>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Callaway &amp; Sant'anna</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250">
+        <v>-4</v>
+      </c>
+      <c r="B250">
+        <v>-7413.126262893735</v>
+      </c>
+      <c r="C250">
+        <v>27386.01190898277</v>
+      </c>
+      <c r="D250">
+        <v>-71004.30079533333</v>
+      </c>
+      <c r="E250">
+        <v>56178.04826954586</v>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Callaway &amp; Sant'anna</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251">
+        <v>-3</v>
+      </c>
+      <c r="B251">
+        <v>-15573.65593081618</v>
+      </c>
+      <c r="C251">
+        <v>17656.55862817799</v>
+      </c>
+      <c r="D251">
+        <v>-56572.73623131198</v>
+      </c>
+      <c r="E251">
+        <v>25425.42436967962</v>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Callaway &amp; Sant'anna</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252">
+        <v>-2</v>
+      </c>
+      <c r="B252">
+        <v>-4540.462537462546</v>
+      </c>
+      <c r="C252">
+        <v>14223.30031329641</v>
+      </c>
+      <c r="D252">
+        <v>-37567.40985845825</v>
+      </c>
+      <c r="E252">
+        <v>28486.48478353315</v>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Callaway &amp; Sant'anna</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253">
+        <v>-1</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Callaway &amp; Sant'anna</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254">
+        <v>0</v>
+      </c>
+      <c r="B254">
+        <v>-4325.333366633375</v>
+      </c>
+      <c r="C254">
+        <v>13978.79164124147</v>
+      </c>
+      <c r="D254">
+        <v>-36784.52391855234</v>
+      </c>
+      <c r="E254">
+        <v>28133.85718528559</v>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Callaway &amp; Sant'anna</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255">
+        <v>1</v>
+      </c>
+      <c r="B255">
+        <v>6741.316383616378</v>
+      </c>
+      <c r="C255">
+        <v>16616.09860555821</v>
+      </c>
+      <c r="D255">
+        <v>-31841.78326543093</v>
+      </c>
+      <c r="E255">
+        <v>45324.41603266368</v>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Callaway &amp; Sant'anna</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256">
+        <v>2</v>
+      </c>
+      <c r="B256">
+        <v>7832.252434358099</v>
+      </c>
+      <c r="C256">
+        <v>25016.62783159551</v>
+      </c>
+      <c r="D256">
+        <v>-50257.13830786503</v>
+      </c>
+      <c r="E256">
+        <v>65921.64317658122</v>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Callaway &amp; Sant'anna</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257">
+        <v>3</v>
+      </c>
+      <c r="B257">
+        <v>28291.73203696573</v>
+      </c>
+      <c r="C257">
+        <v>36455.01184204667</v>
+      </c>
+      <c r="D257">
+        <v>-56357.94343729906</v>
+      </c>
+      <c r="E257">
+        <v>112941.4075112305</v>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Callaway &amp; Sant'anna</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258">
+        <v>-6</v>
+      </c>
+      <c r="B258">
+        <v>8204.884848485701</v>
+      </c>
+      <c r="C258">
+        <v>53338.62724909511</v>
+      </c>
+      <c r="D258">
+        <v>-96336.90354454743</v>
+      </c>
+      <c r="E258">
+        <v>112746.6732415188</v>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>ETWFE</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259">
+        <v>-5</v>
+      </c>
+      <c r="B259">
+        <v>3603.401598402474</v>
+      </c>
+      <c r="C259">
+        <v>38255.1072385561</v>
+      </c>
+      <c r="D259">
+        <v>-71375.23081388498</v>
+      </c>
+      <c r="E259">
+        <v>78582.03401068992</v>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>ETWFE</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260">
+        <v>-4</v>
+      </c>
+      <c r="B260">
+        <v>-7413.126262892658</v>
+      </c>
+      <c r="C260">
+        <v>24904.78700262349</v>
+      </c>
+      <c r="D260">
+        <v>-56225.61183067593</v>
+      </c>
+      <c r="E260">
+        <v>41399.35930489062</v>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>ETWFE</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261">
+        <v>-3</v>
+      </c>
+      <c r="B261">
+        <v>-15573.65593081483</v>
+      </c>
+      <c r="C261">
+        <v>16912.33301668497</v>
+      </c>
+      <c r="D261">
+        <v>-48721.21953806501</v>
+      </c>
+      <c r="E261">
+        <v>17573.90767643535</v>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>ETWFE</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262">
+        <v>-2</v>
+      </c>
+      <c r="B262">
+        <v>-4540.462537461782</v>
+      </c>
+      <c r="C262">
+        <v>13136.36519634832</v>
+      </c>
+      <c r="D262">
+        <v>-30287.26521006991</v>
+      </c>
+      <c r="E262">
+        <v>21206.34013514635</v>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>ETWFE</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263">
+        <v>-1</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>ETWFE</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264">
+        <v>0</v>
+      </c>
+      <c r="B264">
+        <v>-4325.333366632769</v>
+      </c>
+      <c r="C264">
+        <v>12153.96486190456</v>
+      </c>
+      <c r="D264">
+        <v>-28146.66676533104</v>
+      </c>
+      <c r="E264">
+        <v>19496.00003206549</v>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>ETWFE</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265">
+        <v>1</v>
+      </c>
+      <c r="B265">
+        <v>6741.316383617276</v>
+      </c>
+      <c r="C265">
+        <v>16606.64734180044</v>
+      </c>
+      <c r="D265">
+        <v>-25807.11431026941</v>
+      </c>
+      <c r="E265">
+        <v>39289.74707750396</v>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>ETWFE</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266">
+        <v>2</v>
+      </c>
+      <c r="B266">
+        <v>7832.252434359209</v>
+      </c>
+      <c r="C266">
+        <v>23830.23458405888</v>
+      </c>
+      <c r="D266">
+        <v>-38874.14909353701</v>
+      </c>
+      <c r="E266">
+        <v>54538.65396225543</v>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>ETWFE</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267">
+        <v>3</v>
+      </c>
+      <c r="B267">
+        <v>28291.73203696683</v>
+      </c>
+      <c r="C267">
+        <v>38309.52834302539</v>
+      </c>
+      <c r="D267">
+        <v>-46793.56378007933</v>
+      </c>
+      <c r="E267">
+        <v>103377.027854013</v>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>ETWFE</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>SALWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268">
+        <v>-6</v>
+      </c>
+      <c r="B268">
+        <v>-74583.66214818656</v>
+      </c>
+      <c r="C268">
+        <v>78100.95836262291</v>
+      </c>
+      <c r="D268">
+        <v>-227757.6046470158</v>
+      </c>
+      <c r="E268">
+        <v>78590.28035064266</v>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>TWFE</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269">
+        <v>-5</v>
+      </c>
+      <c r="B269">
+        <v>-52778.57660772921</v>
+      </c>
+      <c r="C269">
+        <v>52719.17474840299</v>
+      </c>
+      <c r="D269">
+        <v>-156173.0036518177</v>
+      </c>
+      <c r="E269">
+        <v>50615.85043635929</v>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>TWFE</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270">
+        <v>-4</v>
+      </c>
+      <c r="B270">
+        <v>-32677.6523434103</v>
+      </c>
+      <c r="C270">
+        <v>40320.41193733806</v>
+      </c>
+      <c r="D270">
+        <v>-111755.2538107774</v>
+      </c>
+      <c r="E270">
+        <v>46399.9491239568</v>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>TWFE</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271">
+        <v>-3</v>
+      </c>
+      <c r="B271">
+        <v>-32247.41902054331</v>
+      </c>
+      <c r="C271">
+        <v>28416.34609303345</v>
+      </c>
+      <c r="D271">
+        <v>-87978.40944286055</v>
+      </c>
+      <c r="E271">
+        <v>23483.57140177393</v>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>TWFE</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272">
+        <v>-2</v>
+      </c>
+      <c r="B272">
+        <v>-24424.16919721848</v>
+      </c>
+      <c r="C272">
+        <v>15966.05670760761</v>
+      </c>
+      <c r="D272">
+        <v>-55737.27857942713</v>
+      </c>
+      <c r="E272">
+        <v>6888.940184990177</v>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>TWFE</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273">
+        <v>0</v>
+      </c>
+      <c r="B273">
+        <v>21898.44667756407</v>
+      </c>
+      <c r="C273">
+        <v>10051.26635020396</v>
+      </c>
+      <c r="D273">
+        <v>2185.601582652049</v>
+      </c>
+      <c r="E273">
+        <v>41611.29177247609</v>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>TWFE</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274">
+        <v>1</v>
+      </c>
+      <c r="B274">
+        <v>41186.86158406308</v>
+      </c>
+      <c r="C274">
+        <v>18572.91976626068</v>
+      </c>
+      <c r="D274">
+        <v>4761.094167692034</v>
+      </c>
+      <c r="E274">
+        <v>77612.62900043413</v>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>TWFE</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275">
+        <v>2</v>
+      </c>
+      <c r="B275">
+        <v>39562.64804967809</v>
+      </c>
+      <c r="C275">
+        <v>30331.50507198391</v>
+      </c>
+      <c r="D275">
+        <v>-19924.40961519255</v>
+      </c>
+      <c r="E275">
+        <v>99049.70571454873</v>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>TWFE</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276">
+        <v>3</v>
+      </c>
+      <c r="B276">
+        <v>50989.39387468089</v>
+      </c>
+      <c r="C276">
+        <v>54406.07729403452</v>
+      </c>
+      <c r="D276">
+        <v>-55713.43704744954</v>
+      </c>
+      <c r="E276">
+        <v>157692.2247968113</v>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>TWFE</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277">
+        <v>-6</v>
+      </c>
+      <c r="B277">
+        <v>-55520.99805194885</v>
+      </c>
+      <c r="C277">
+        <v>72086.97660369077</v>
+      </c>
+      <c r="D277">
+        <v>-196900.4813216254</v>
+      </c>
+      <c r="E277">
+        <v>85858.48521772766</v>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Sun &amp; Abraham</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278">
+        <v>-5</v>
+      </c>
+      <c r="B278">
+        <v>-46474.66753246822</v>
+      </c>
+      <c r="C278">
+        <v>56786.73782016381</v>
+      </c>
+      <c r="D278">
+        <v>-157846.7908734589</v>
+      </c>
+      <c r="E278">
+        <v>64897.45580852242</v>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Sun &amp; Abraham</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279">
+        <v>-4</v>
+      </c>
+      <c r="B279">
+        <v>-30536.54654192241</v>
+      </c>
+      <c r="C279">
+        <v>45621.18167828043</v>
+      </c>
+      <c r="D279">
+        <v>-120010.3932158734</v>
+      </c>
+      <c r="E279">
+        <v>58937.30013202859</v>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Sun &amp; Abraham</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280">
+        <v>-3</v>
+      </c>
+      <c r="B280">
+        <v>-29049.26286537911</v>
+      </c>
+      <c r="C280">
+        <v>31062.67597180153</v>
+      </c>
+      <c r="D280">
+        <v>-89970.46229381859</v>
+      </c>
+      <c r="E280">
+        <v>31871.93656306037</v>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Sun &amp; Abraham</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281">
+        <v>-2</v>
+      </c>
+      <c r="B281">
+        <v>-9972.889110890546</v>
+      </c>
+      <c r="C281">
+        <v>19455.1533836116</v>
+      </c>
+      <c r="D281">
+        <v>-48129.01192110257</v>
+      </c>
+      <c r="E281">
+        <v>28183.23369932148</v>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Sun &amp; Abraham</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282">
+        <v>0</v>
+      </c>
+      <c r="B282">
+        <v>19483.49400599291</v>
+      </c>
+      <c r="C282">
+        <v>10666.26342020815</v>
+      </c>
+      <c r="D282">
+        <v>-1435.552426730883</v>
+      </c>
+      <c r="E282">
+        <v>40402.54043871669</v>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Sun &amp; Abraham</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283">
+        <v>1</v>
+      </c>
+      <c r="B283">
+        <v>50595.60099899891</v>
+      </c>
+      <c r="C283">
+        <v>18714.13762953951</v>
+      </c>
+      <c r="D283">
+        <v>13892.78403321644</v>
+      </c>
+      <c r="E283">
+        <v>87298.41796478137</v>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Sun &amp; Abraham</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284">
+        <v>2</v>
+      </c>
+      <c r="B284">
+        <v>45750.57579213078</v>
+      </c>
+      <c r="C284">
+        <v>22071.25671892719</v>
+      </c>
+      <c r="D284">
+        <v>2463.660220829923</v>
+      </c>
+      <c r="E284">
+        <v>89037.49136343165</v>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Sun &amp; Abraham</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285">
+        <v>3</v>
+      </c>
+      <c r="B285">
+        <v>36488.31313403496</v>
+      </c>
+      <c r="C285">
+        <v>32427.25617641083</v>
+      </c>
+      <c r="D285">
+        <v>-27109.14840577479</v>
+      </c>
+      <c r="E285">
+        <v>100085.7746738447</v>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Sun &amp; Abraham</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286">
+        <v>-6</v>
+      </c>
+      <c r="B286">
+        <v>-55520.99805194803</v>
+      </c>
+      <c r="C286">
+        <v>82513.49163385571</v>
+      </c>
+      <c r="D286">
+        <v>-251418.8482794079</v>
+      </c>
+      <c r="E286">
+        <v>140376.8521755118</v>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Callaway &amp; Sant'anna</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287">
+        <v>-5</v>
+      </c>
+      <c r="B287">
+        <v>-46474.66753246755</v>
+      </c>
+      <c r="C287">
+        <v>67751.47296301037</v>
+      </c>
+      <c r="D287">
+        <v>-207325.5494960164</v>
+      </c>
+      <c r="E287">
+        <v>114376.2144310813</v>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>Callaway &amp; Sant'anna</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288">
+        <v>-4</v>
+      </c>
+      <c r="B288">
+        <v>-28959.77785948994</v>
+      </c>
+      <c r="C288">
+        <v>55393.72607861239</v>
+      </c>
+      <c r="D288">
+        <v>-160471.7480842055</v>
+      </c>
+      <c r="E288">
+        <v>102552.1923652256</v>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>Callaway &amp; Sant'anna</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289">
+        <v>-3</v>
+      </c>
+      <c r="B289">
+        <v>-27274.02654694704</v>
+      </c>
+      <c r="C289">
+        <v>37633.63208743674</v>
+      </c>
+      <c r="D289">
+        <v>-116621.2045199017</v>
+      </c>
+      <c r="E289">
+        <v>62073.15142600761</v>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>Callaway &amp; Sant'anna</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290">
+        <v>-2</v>
+      </c>
+      <c r="B290">
+        <v>-9972.889110889106</v>
+      </c>
+      <c r="C290">
+        <v>22589.02608421064</v>
+      </c>
+      <c r="D290">
+        <v>-63602.19943343547</v>
+      </c>
+      <c r="E290">
+        <v>43656.42121165726</v>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>Callaway &amp; Sant'anna</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291">
+        <v>-1</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>Callaway &amp; Sant'anna</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292">
+        <v>0</v>
+      </c>
+      <c r="B292">
+        <v>19483.49400599399</v>
+      </c>
+      <c r="C292">
+        <v>10970.06270576536</v>
+      </c>
+      <c r="D292">
+        <v>-6560.873507331729</v>
+      </c>
+      <c r="E292">
+        <v>45527.86151931971</v>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Callaway &amp; Sant'anna</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293">
+        <v>1</v>
+      </c>
+      <c r="B293">
+        <v>50595.60099900101</v>
+      </c>
+      <c r="C293">
+        <v>19381.55504965302</v>
+      </c>
+      <c r="D293">
+        <v>4581.247550717795</v>
+      </c>
+      <c r="E293">
+        <v>96609.95444728422</v>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>Callaway &amp; Sant'anna</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294">
+        <v>2</v>
+      </c>
+      <c r="B294">
+        <v>46251.62796260343</v>
+      </c>
+      <c r="C294">
+        <v>23670.13201631428</v>
+      </c>
+      <c r="D294">
+        <v>-9944.369622518534</v>
+      </c>
+      <c r="E294">
+        <v>102447.6255477254</v>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>Callaway &amp; Sant'anna</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295">
+        <v>3</v>
+      </c>
+      <c r="B295">
+        <v>37573.92617005638</v>
+      </c>
+      <c r="C295">
+        <v>33032.77995547705</v>
+      </c>
+      <c r="D295">
+        <v>-40850.22547085631</v>
+      </c>
+      <c r="E295">
+        <v>115998.0778109691</v>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>Callaway &amp; Sant'anna</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296">
+        <v>-6</v>
+      </c>
+      <c r="B296">
+        <v>-55520.99805194786</v>
+      </c>
+      <c r="C296">
+        <v>72121.26545068044</v>
+      </c>
+      <c r="D296">
+        <v>-196876.0808547344</v>
+      </c>
+      <c r="E296">
+        <v>85834.08475083869</v>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>ETWFE</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297">
+        <v>-5</v>
+      </c>
+      <c r="B297">
+        <v>-46474.66753246593</v>
+      </c>
+      <c r="C297">
+        <v>56813.7482265514</v>
+      </c>
+      <c r="D297">
+        <v>-157827.567883233</v>
+      </c>
+      <c r="E297">
+        <v>64878.23281830117</v>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>ETWFE</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298">
+        <v>-4</v>
+      </c>
+      <c r="B298">
+        <v>-28959.77785948712</v>
+      </c>
+      <c r="C298">
+        <v>45553.63544883065</v>
+      </c>
+      <c r="D298">
+        <v>-118243.2627040623</v>
+      </c>
+      <c r="E298">
+        <v>60323.70698508804</v>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>ETWFE</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299">
+        <v>-3</v>
+      </c>
+      <c r="B299">
+        <v>-27274.02654694341</v>
+      </c>
+      <c r="C299">
+        <v>31064.15424155084</v>
+      </c>
+      <c r="D299">
+        <v>-88158.6500705802</v>
+      </c>
+      <c r="E299">
+        <v>33610.59697669338</v>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>ETWFE</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300">
+        <v>-2</v>
+      </c>
+      <c r="B300">
+        <v>-9972.889110887347</v>
+      </c>
+      <c r="C300">
+        <v>19464.35230192143</v>
+      </c>
+      <c r="D300">
+        <v>-48122.31860505264</v>
+      </c>
+      <c r="E300">
+        <v>28176.54038327795</v>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>ETWFE</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301">
+        <v>-1</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>ETWFE</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302">
+        <v>0</v>
+      </c>
+      <c r="B302">
+        <v>19483.49400599656</v>
+      </c>
+      <c r="C302">
+        <v>10671.33860134973</v>
+      </c>
+      <c r="D302">
+        <v>-1431.945319480947</v>
+      </c>
+      <c r="E302">
+        <v>40398.93333147406</v>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>ETWFE</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303">
+        <v>1</v>
+      </c>
+      <c r="B303">
+        <v>50595.60099900473</v>
+      </c>
+      <c r="C303">
+        <v>18723.03771468678</v>
+      </c>
+      <c r="D303">
+        <v>13899.12139703354</v>
+      </c>
+      <c r="E303">
+        <v>87292.08060097593</v>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>ETWFE</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304">
+        <v>2</v>
+      </c>
+      <c r="B304">
+        <v>46251.62796260726</v>
+      </c>
+      <c r="C304">
+        <v>22207.99164246911</v>
+      </c>
+      <c r="D304">
+        <v>2724.76417440128</v>
+      </c>
+      <c r="E304">
+        <v>89778.49175081323</v>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>ETWFE</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>SALBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305">
+        <v>3</v>
+      </c>
+      <c r="B305">
+        <v>37573.92617006018</v>
+      </c>
+      <c r="C305">
+        <v>33352.18966681095</v>
+      </c>
+      <c r="D305">
+        <v>-27795.16438243821</v>
+      </c>
+      <c r="E305">
+        <v>102943.0167225586</v>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>ETWFE</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>SALBC</t>
         </is>
       </c>
     </row>
